--- a/data_indexpoints_tidy/tallmateriale_18952.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_18952.xlsx
@@ -1,635 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programmering\R\byindeks\data_indexpoints_tidy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D17B9CE-AA7D-4EA6-88D0-295CCFE9644E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54915" yWindow="15" windowWidth="21870" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="punkt_adt" sheetId="1" r:id="rId1"/>
     <sheet name="punktindeks_maned" sheetId="2" r:id="rId2"/>
     <sheet name="byindeks_aarlig" sheetId="3" r:id="rId3"/>
-    <sheet name="by_glid_indeks" sheetId="5" r:id="rId4"/>
+    <sheet name="by_glid_indeks" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">punktindeks_maned!$A$1:$P$57</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="198">
-  <si>
-    <t>trp_id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>road_reference</t>
-  </si>
-  <si>
-    <t>road_category_and_number</t>
-  </si>
-  <si>
-    <t>county_name</t>
-  </si>
-  <si>
-    <t>municipality_name</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>road_link_position</t>
-  </si>
-  <si>
-    <t>traffic_type</t>
-  </si>
-  <si>
-    <t>adt</t>
-  </si>
-  <si>
-    <t>year_aadt</t>
-  </si>
-  <si>
-    <t>adt_ref</t>
-  </si>
-  <si>
-    <t>ydt_ref_light</t>
-  </si>
-  <si>
-    <t>ydt_ref_heavy</t>
-  </si>
-  <si>
-    <t>ydt_light</t>
-  </si>
-  <si>
-    <t>ydt_heavy</t>
-  </si>
-  <si>
-    <t>31043V971805</t>
-  </si>
-  <si>
-    <t>Rakkestadsvingen nord</t>
-  </si>
-  <si>
-    <t>RV22 S2D1 m745</t>
-  </si>
-  <si>
-    <t>rv. 22</t>
-  </si>
-  <si>
-    <t>Østfold</t>
-  </si>
-  <si>
-    <t>Fredrikstad</t>
-  </si>
-  <si>
-    <t>0.31054@971805</t>
-  </si>
-  <si>
-    <t>VEHICLE</t>
-  </si>
-  <si>
-    <t>71595V971806</t>
-  </si>
-  <si>
-    <t>Hvitsten</t>
-  </si>
-  <si>
-    <t>RV22 S2D1 m7580</t>
-  </si>
-  <si>
-    <t>0.71596@971806</t>
-  </si>
-  <si>
-    <t>88954V971483</t>
-  </si>
-  <si>
-    <t>Hafslund sør</t>
-  </si>
-  <si>
-    <t>RV22 S3D1 m3692</t>
-  </si>
-  <si>
-    <t>Sarpsborg</t>
-  </si>
-  <si>
-    <t>0.88954@971483</t>
-  </si>
-  <si>
-    <t>87740V971816</t>
-  </si>
-  <si>
-    <t>Hafslund øst</t>
-  </si>
-  <si>
-    <t>RV22 S3D1 m4556</t>
-  </si>
-  <si>
-    <t>0.87671@971816</t>
-  </si>
-  <si>
-    <t>05882V3188133</t>
-  </si>
-  <si>
-    <t>Simo</t>
-  </si>
-  <si>
-    <t>RV110 S3D1 m2717</t>
-  </si>
-  <si>
-    <t>rv. 110</t>
-  </si>
-  <si>
-    <t>0.04838@3188133</t>
-  </si>
-  <si>
-    <t>61523V971803</t>
-  </si>
-  <si>
-    <t>St. Hansfjellet</t>
-  </si>
-  <si>
-    <t>RV110 S3D1 m4024</t>
-  </si>
-  <si>
-    <t>0.61523@971803</t>
-  </si>
-  <si>
-    <t>29444V971469</t>
-  </si>
-  <si>
-    <t>Fredrikstad bru vest</t>
-  </si>
-  <si>
-    <t>RV110 S3D1 m5815</t>
-  </si>
-  <si>
-    <t>0.29444@971469</t>
-  </si>
-  <si>
-    <t>08132V1984223</t>
-  </si>
-  <si>
-    <t>Værstebrua</t>
-  </si>
-  <si>
-    <t>FV108 S1D1 m1071</t>
-  </si>
-  <si>
-    <t>fv. 108</t>
-  </si>
-  <si>
-    <t>0.08132@1984223</t>
-  </si>
-  <si>
-    <t>82913V971429</t>
-  </si>
-  <si>
-    <t>Kråkerøy bru</t>
-  </si>
-  <si>
-    <t>FV108 S1D90 m97</t>
-  </si>
-  <si>
-    <t>0.85074@971429</t>
-  </si>
-  <si>
-    <t>69356V971439</t>
-  </si>
-  <si>
-    <t>Glemmen</t>
-  </si>
-  <si>
-    <t>FV109 S1D1 m1954</t>
-  </si>
-  <si>
-    <t>fv. 109</t>
-  </si>
-  <si>
-    <t>0.69356@971439</t>
-  </si>
-  <si>
-    <t>29937V971442</t>
-  </si>
-  <si>
-    <t>Stabburet</t>
-  </si>
-  <si>
-    <t>FV109 S1D1 m3493</t>
-  </si>
-  <si>
-    <t>0.29937@971442</t>
-  </si>
-  <si>
-    <t>26581V971445</t>
-  </si>
-  <si>
-    <t>Rolvsøysund bru</t>
-  </si>
-  <si>
-    <t>FV109 S2D1 m4276</t>
-  </si>
-  <si>
-    <t>0.26581@971445</t>
-  </si>
-  <si>
-    <t>47762V971800</t>
-  </si>
-  <si>
-    <t>Fylkeshuset</t>
-  </si>
-  <si>
-    <t>FV109 S2D1 m9007</t>
-  </si>
-  <si>
-    <t>0.4747@971800</t>
-  </si>
-  <si>
-    <t>28001V971448</t>
-  </si>
-  <si>
-    <t>Torsbekkdalen</t>
-  </si>
-  <si>
-    <t>FV109 S2D30 m245</t>
-  </si>
-  <si>
-    <t>0.26699@971448</t>
-  </si>
-  <si>
-    <t>96583V971490</t>
-  </si>
-  <si>
-    <t>Hauge bru</t>
-  </si>
-  <si>
-    <t>FV112 S1D1 m7437</t>
-  </si>
-  <si>
-    <t>fv. 112</t>
-  </si>
-  <si>
-    <t>0.96583@971490</t>
-  </si>
-  <si>
-    <t>56645V971498</t>
-  </si>
-  <si>
-    <t>Greåkerdalen</t>
-  </si>
-  <si>
-    <t>FV114 S1D1 m1744</t>
-  </si>
-  <si>
-    <t>fv. 114</t>
-  </si>
-  <si>
-    <t>0.56636@971498</t>
-  </si>
-  <si>
-    <t>93031V971807</t>
-  </si>
-  <si>
-    <t>Tingvoll</t>
-  </si>
-  <si>
-    <t>FV114 S2D1 m148</t>
-  </si>
-  <si>
-    <t>0.93027@971807</t>
-  </si>
-  <si>
-    <t>92069V971506</t>
-  </si>
-  <si>
-    <t>Skåra</t>
-  </si>
-  <si>
-    <t>FV116 S2D1 m6500</t>
-  </si>
-  <si>
-    <t>fv. 116</t>
-  </si>
-  <si>
-    <t>0.92069@971506</t>
-  </si>
-  <si>
-    <t>61693V971813</t>
-  </si>
-  <si>
-    <t>Ålekilene</t>
-  </si>
-  <si>
-    <t>FV117 S2D1 m5705</t>
-  </si>
-  <si>
-    <t>fv. 117</t>
-  </si>
-  <si>
-    <t>0.61693@971813</t>
-  </si>
-  <si>
-    <t>13990V971815</t>
-  </si>
-  <si>
-    <t>Skjeberg nord</t>
-  </si>
-  <si>
-    <t>FV118 S3D1 m4356</t>
-  </si>
-  <si>
-    <t>fv. 118</t>
-  </si>
-  <si>
-    <t>0.1399@971815</t>
-  </si>
-  <si>
-    <t>16035V971817</t>
-  </si>
-  <si>
-    <t>Sarpsfossen bru</t>
-  </si>
-  <si>
-    <t>FV118 S5D1 m717</t>
-  </si>
-  <si>
-    <t>0.16035@971817</t>
-  </si>
-  <si>
-    <t>82998V971817</t>
-  </si>
-  <si>
-    <t>Tune kirke</t>
-  </si>
-  <si>
-    <t>FV118 S5D1 m3677</t>
-  </si>
-  <si>
-    <t>0.82998@971817</t>
-  </si>
-  <si>
-    <t>06966V971804</t>
-  </si>
-  <si>
-    <t>Rakkestadsvingen øst</t>
-  </si>
-  <si>
-    <t>FV130 S1D1 m674</t>
-  </si>
-  <si>
-    <t>fv. 130</t>
-  </si>
-  <si>
-    <t>0.06952@971804</t>
-  </si>
-  <si>
-    <t>24062V3324514</t>
-  </si>
-  <si>
-    <t>Borge skole</t>
-  </si>
-  <si>
-    <t>FV130 S1D1 m4535</t>
-  </si>
-  <si>
-    <t>0.24062@3324514</t>
-  </si>
-  <si>
-    <t>54674V971471</t>
-  </si>
-  <si>
-    <t>Solberg vest</t>
-  </si>
-  <si>
-    <t>FV130 S2D1 m7623</t>
-  </si>
-  <si>
-    <t>0.54674@971471</t>
-  </si>
-  <si>
-    <t>86688V971471</t>
-  </si>
-  <si>
-    <t>Solberg øst</t>
-  </si>
-  <si>
-    <t>FV130 S2D1 m9076</t>
-  </si>
-  <si>
-    <t>0.86688@971471</t>
-  </si>
-  <si>
-    <t>98723V971842</t>
-  </si>
-  <si>
-    <t>Veumveien</t>
-  </si>
-  <si>
-    <t>FV381 S1D1 m680</t>
-  </si>
-  <si>
-    <t>fv. 381</t>
-  </si>
-  <si>
-    <t>0.98723@971842</t>
-  </si>
-  <si>
-    <t>45854V971841</t>
-  </si>
-  <si>
-    <t>Nordre Veum</t>
-  </si>
-  <si>
-    <t>FV381 S1D1 m7711</t>
-  </si>
-  <si>
-    <t>0.45854@971841</t>
-  </si>
-  <si>
-    <t>07156V971848</t>
-  </si>
-  <si>
-    <t>Grøte bru</t>
-  </si>
-  <si>
-    <t>FV581 S1D1 m707</t>
-  </si>
-  <si>
-    <t>fv. 581</t>
-  </si>
-  <si>
-    <t>0.0716@971848</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>jan</t>
-  </si>
-  <si>
-    <t>feb</t>
-  </si>
-  <si>
-    <t>mar</t>
-  </si>
-  <si>
-    <t>apr</t>
-  </si>
-  <si>
-    <t>mai</t>
-  </si>
-  <si>
-    <t>jun</t>
-  </si>
-  <si>
-    <t>jul</t>
-  </si>
-  <si>
-    <t>aug</t>
-  </si>
-  <si>
-    <t>sep</t>
-  </si>
-  <si>
-    <t>okt</t>
-  </si>
-  <si>
-    <t>nov</t>
-  </si>
-  <si>
-    <t>des</t>
-  </si>
-  <si>
-    <t>year_base</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>index_p</t>
-  </si>
-  <si>
-    <t>index_i</t>
-  </si>
-  <si>
-    <t>n_trp</t>
-  </si>
-  <si>
-    <t>standard_error</t>
-  </si>
-  <si>
-    <t>index_type</t>
-  </si>
-  <si>
-    <t>year_from_to</t>
-  </si>
-  <si>
-    <t>area_name</t>
-  </si>
-  <si>
-    <t>month_name_short</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t>ci_lower</t>
-  </si>
-  <si>
-    <t>ci_upper</t>
-  </si>
-  <si>
-    <t>direct</t>
-  </si>
-  <si>
-    <t>2023-2024</t>
-  </si>
-  <si>
-    <t>Nedre Glomma</t>
-  </si>
-  <si>
-    <t>jan-des</t>
-  </si>
-  <si>
-    <t>2024-2025</t>
-  </si>
-  <si>
-    <t>jan-aug</t>
-  </si>
-  <si>
-    <t>n_eff</t>
-  </si>
-  <si>
-    <t>sd_sample_p</t>
-  </si>
-  <si>
-    <t>standard_error_p</t>
-  </si>
-  <si>
-    <t>index_period</t>
-  </si>
-  <si>
-    <t>month_object</t>
-  </si>
-  <si>
-    <t>month_n</t>
-  </si>
-  <si>
-    <t>window</t>
-  </si>
-  <si>
-    <t>2023 - (jan 2024 - des 2024)</t>
-  </si>
-  <si>
-    <t>12_months</t>
-  </si>
-  <si>
-    <t>2023 - (feb 2024 - jan 2025)</t>
-  </si>
-  <si>
-    <t>2023 - (mar 2024 - feb 2025)</t>
-  </si>
-  <si>
-    <t>2023 - (apr 2024 - mar 2025)</t>
-  </si>
-  <si>
-    <t>2023 - (mai 2024 - apr 2025)</t>
-  </si>
-  <si>
-    <t>2023 - (jun 2024 - mai 2025)</t>
-  </si>
-  <si>
-    <t>2023 - (jul 2024 - jun 2025)</t>
-  </si>
-  <si>
-    <t>2023 - (aug 2024 - jul 2025)</t>
-  </si>
-  <si>
-    <t>2023 - (sep 2024 - aug 2025)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,21 +70,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -730,7 +114,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -764,7 +148,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -799,10 +182,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -975,116 +357,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>trp_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>road_reference</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>road_category_and_number</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>county_name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>municipality_name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>lon</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>road_link_position</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>traffic_type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>adt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>year_aadt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>adt_ref</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ydt_ref_light</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ydt_ref_heavy</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ydt_light</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ydt_heavy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>31043V971805</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rakkestadsvingen nord</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>RV22 S2D1 m745</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>rv. 22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
       </c>
       <c r="G2">
-        <v>59.213757000000001</v>
+        <v>59.213757</v>
       </c>
       <c r="H2">
-        <v>10.983788000000001</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
+        <v>10.983788</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.31054@971805</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K2">
         <v>11330</v>
@@ -1108,36 +520,52 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>71595V971806</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hvitsten</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>RV22 S2D1 m7580</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>rv. 22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
       </c>
       <c r="G3">
-        <v>59.258374000000003</v>
+        <v>59.258374</v>
       </c>
       <c r="H3">
-        <v>11.059836000000001</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
+        <v>11.059836</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.71596@971806</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K3">
         <v>8400</v>
@@ -1161,36 +589,52 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>88954V971483</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hafslund sør</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>RV22 S3D1 m3692</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>rv. 22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sarpsborg</t>
+        </is>
       </c>
       <c r="G4">
-        <v>59.273074000000001</v>
+        <v>59.273074</v>
       </c>
       <c r="H4">
-        <v>11.131887000000001</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
+        <v>11.131887</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.88954@971483</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K4">
         <v>10520</v>
@@ -1214,36 +658,52 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>87740V971816</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hafslund øst</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>RV22 S3D1 m4556</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>rv. 22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sarpsborg</t>
+        </is>
       </c>
       <c r="G5">
-        <v>59.272764000000002</v>
+        <v>59.272764</v>
       </c>
       <c r="H5">
-        <v>11.143732999999999</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
+        <v>11.143733</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.87671@971816</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K5">
         <v>18590</v>
@@ -1267,36 +727,52 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>05882V3188133</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Simo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RV110 S3D1 m2717</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>rv. 110</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
       </c>
       <c r="G6">
-        <v>59.225662999999997</v>
+        <v>59.225663</v>
       </c>
       <c r="H6">
-        <v>10.916226999999999</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
+        <v>10.916227</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.04838@3188133</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K6">
         <v>23030</v>
@@ -1320,36 +796,52 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>61523V971803</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>St. Hansfjellet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>RV110 S3D1 m4024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>rv. 110</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
       </c>
       <c r="G7">
-        <v>59.219043999999997</v>
+        <v>59.219044</v>
       </c>
       <c r="H7">
-        <v>10.934753000000001</v>
-      </c>
-      <c r="I7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
+        <v>10.934753</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.61523@971803</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K7">
         <v>19080</v>
@@ -1373,36 +865,52 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>29444V971469</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fredrikstad bru vest</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>RV110 S3D1 m5815</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>rv. 110</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
       </c>
       <c r="G8">
-        <v>59.211840000000002</v>
+        <v>59.21184</v>
       </c>
       <c r="H8">
         <v>10.955489</v>
       </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.29444@971469</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K8">
         <v>24630</v>
@@ -1426,36 +934,52 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>08132V1984223</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Værstebrua</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FV108 S1D1 m1071</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>fv. 108</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
       </c>
       <c r="G9">
-        <v>59.215639000000003</v>
+        <v>59.215639</v>
       </c>
       <c r="H9">
         <v>10.926776</v>
       </c>
-      <c r="I9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.08132@1984223</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K9">
         <v>10970</v>
@@ -1479,36 +1003,52 @@
         <v>910</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>82913V971429</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Kråkerøy bru</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FV108 S1D90 m97</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>fv. 108</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
       </c>
       <c r="G10">
-        <v>59.207855000000002</v>
+        <v>59.207855</v>
       </c>
       <c r="H10">
         <v>10.93777</v>
       </c>
-      <c r="I10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.85074@971429</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K10">
         <v>12190</v>
@@ -1532,36 +1072,52 @@
         <v>630</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>69356V971439</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Glemmen</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FV109 S1D1 m1954</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>fv. 109</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
       </c>
       <c r="G11">
-        <v>59.229610000000001</v>
+        <v>59.22961</v>
       </c>
       <c r="H11">
-        <v>10.958012999999999</v>
-      </c>
-      <c r="I11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" t="s">
-        <v>24</v>
+        <v>10.958013</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.69356@971439</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K11">
         <v>22980</v>
@@ -1585,36 +1141,52 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>29937V971442</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Stabburet</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>FV109 S1D1 m3493</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>fv. 109</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
       </c>
       <c r="G12">
-        <v>59.241112999999999</v>
+        <v>59.241113</v>
       </c>
       <c r="H12">
         <v>10.974841</v>
       </c>
-      <c r="I12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" t="s">
-        <v>24</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.29937@971442</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K12">
         <v>23160</v>
@@ -1638,36 +1210,52 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>26581V971445</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Rolvsøysund bru</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>FV109 S2D1 m4276</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>fv. 109</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sarpsborg</t>
+        </is>
       </c>
       <c r="G13">
-        <v>59.268559000000003</v>
+        <v>59.268559</v>
       </c>
       <c r="H13">
         <v>11.031226</v>
       </c>
-      <c r="I13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" t="s">
-        <v>24</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.26581@971445</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K13">
         <v>14920</v>
@@ -1691,24 +1279,36 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>47762V971800</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fylkeshuset</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>FV109 S2D1 m9007</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>fv. 109</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sarpsborg</t>
+        </is>
       </c>
       <c r="G14">
         <v>59.272582</v>
@@ -1716,11 +1316,15 @@
       <c r="H14">
         <v>11.105611</v>
       </c>
-      <c r="I14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.4747@971800</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K14">
         <v>6230</v>
@@ -1744,24 +1348,36 @@
         <v>670</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>28001V971448</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Torsbekkdalen</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>FV109 S2D30 m245</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>fv. 109</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sarpsborg</t>
+        </is>
       </c>
       <c r="G15">
         <v>59.277155</v>
@@ -1769,11 +1385,15 @@
       <c r="H15">
         <v>11.095297</v>
       </c>
-      <c r="I15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" t="s">
-        <v>24</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.26699@971448</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K15">
         <v>8080</v>
@@ -1797,36 +1417,52 @@
         <v>560</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>96583V971490</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hauge bru</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>FV112 S1D1 m7437</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>fv. 112</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
       </c>
       <c r="G16">
-        <v>59.322237000000001</v>
+        <v>59.322237</v>
       </c>
       <c r="H16">
         <v>10.957967</v>
       </c>
-      <c r="I16" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" t="s">
-        <v>24</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.96583@971490</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K16">
         <v>3910</v>
@@ -1850,36 +1486,52 @@
         <v>780</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>56645V971498</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Greåkerdalen</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>FV114 S1D1 m1744</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>fv. 114</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sarpsborg</t>
+        </is>
       </c>
       <c r="G17">
-        <v>59.279082000000002</v>
+        <v>59.279082</v>
       </c>
       <c r="H17">
         <v>11.046923</v>
       </c>
-      <c r="I17" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" t="s">
-        <v>24</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.56636@971498</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K17">
         <v>5190</v>
@@ -1903,36 +1555,52 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>93031V971807</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tingvoll</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FV114 S2D1 m148</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>fv. 114</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sarpsborg</t>
+        </is>
       </c>
       <c r="G18">
-        <v>59.297393999999997</v>
+        <v>59.297394</v>
       </c>
       <c r="H18">
-        <v>11.074140999999999</v>
-      </c>
-      <c r="I18" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" t="s">
-        <v>24</v>
+        <v>11.074141</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.93027@971807</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K18">
         <v>2870</v>
@@ -1956,36 +1624,52 @@
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>92069V971506</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Skåra</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>FV116 S2D1 m6500</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>fv. 116</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
       </c>
       <c r="G19">
-        <v>59.247247000000002</v>
+        <v>59.247247</v>
       </c>
       <c r="H19">
         <v>10.8932</v>
       </c>
-      <c r="I19" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" t="s">
-        <v>24</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.92069@971506</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K19">
         <v>5660</v>
@@ -2009,36 +1693,52 @@
         <v>530</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
-        <v>22</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>61693V971813</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Ålekilene</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FV117 S2D1 m5705</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>fv. 117</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
       </c>
       <c r="G20">
-        <v>59.209035999999998</v>
+        <v>59.209036</v>
       </c>
       <c r="H20">
-        <v>10.888946000000001</v>
-      </c>
-      <c r="I20" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" t="s">
-        <v>24</v>
+        <v>10.888946</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.61693@971813</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K20">
         <v>8120</v>
@@ -2062,36 +1762,52 @@
         <v>550</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>13990V971815</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Skjeberg nord</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>FV118 S3D1 m4356</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>fv. 118</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sarpsborg</t>
+        </is>
       </c>
       <c r="G21">
         <v>59.213293</v>
       </c>
       <c r="H21">
-        <v>11.189306999999999</v>
-      </c>
-      <c r="I21" t="s">
-        <v>109</v>
-      </c>
-      <c r="J21" t="s">
-        <v>24</v>
+        <v>11.189307</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.1399@971815</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K21">
         <v>5470</v>
@@ -2115,36 +1831,52 @@
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s">
-        <v>32</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>16035V971817</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sarpsfossen bru</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>FV118 S5D1 m717</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>fv. 118</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sarpsborg</t>
+        </is>
       </c>
       <c r="G22">
-        <v>59.279788000000003</v>
+        <v>59.279788</v>
       </c>
       <c r="H22">
         <v>11.126583</v>
       </c>
-      <c r="I22" t="s">
-        <v>113</v>
-      </c>
-      <c r="J22" t="s">
-        <v>24</v>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.16035@971817</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K22">
         <v>17710</v>
@@ -2168,36 +1900,52 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>32</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>82998V971817</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tune kirke</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>FV118 S5D1 m3677</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>fv. 118</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sarpsborg</t>
+        </is>
       </c>
       <c r="G23">
-        <v>59.292541999999997</v>
+        <v>59.292542</v>
       </c>
       <c r="H23">
-        <v>11.083880000000001</v>
-      </c>
-      <c r="I23" t="s">
-        <v>117</v>
-      </c>
-      <c r="J23" t="s">
-        <v>24</v>
+        <v>11.08388</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.82998@971817</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K23">
         <v>12720</v>
@@ -2221,36 +1969,52 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>06966V971804</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Rakkestadsvingen øst</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>FV130 S1D1 m674</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>fv. 130</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
       </c>
       <c r="G24">
-        <v>59.208584999999999</v>
+        <v>59.208585</v>
       </c>
       <c r="H24">
-        <v>10.989743000000001</v>
-      </c>
-      <c r="I24" t="s">
-        <v>122</v>
-      </c>
-      <c r="J24" t="s">
-        <v>24</v>
+        <v>10.989743</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.06952@971804</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K24">
         <v>10720</v>
@@ -2274,36 +2038,52 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" t="s">
-        <v>22</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24062V3324514</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Borge skole</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>FV130 S1D1 m4535</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>fv. 130</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
       </c>
       <c r="G25">
-        <v>59.225802000000002</v>
+        <v>59.225802</v>
       </c>
       <c r="H25">
         <v>11.045721</v>
       </c>
-      <c r="I25" t="s">
-        <v>126</v>
-      </c>
-      <c r="J25" t="s">
-        <v>24</v>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.24062@3324514</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K25">
         <v>9640</v>
@@ -2327,36 +2107,52 @@
         <v>880</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>54674V971471</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Solberg vest</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>FV130 S2D1 m7623</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>fv. 130</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sarpsborg</t>
+        </is>
       </c>
       <c r="G26">
-        <v>59.209316999999999</v>
+        <v>59.209317</v>
       </c>
       <c r="H26">
-        <v>11.159725999999999</v>
-      </c>
-      <c r="I26" t="s">
-        <v>130</v>
-      </c>
-      <c r="J26" t="s">
-        <v>24</v>
+        <v>11.159726</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.54674@971471</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K26">
         <v>6580</v>
@@ -2380,36 +2176,52 @@
         <v>680</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" t="s">
-        <v>32</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>86688V971471</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Solberg øst</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FV130 S2D1 m9076</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>fv. 130</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sarpsborg</t>
+        </is>
       </c>
       <c r="G27">
-        <v>59.215721000000002</v>
+        <v>59.215721</v>
       </c>
       <c r="H27">
         <v>11.180446</v>
       </c>
-      <c r="I27" t="s">
-        <v>134</v>
-      </c>
-      <c r="J27" t="s">
-        <v>24</v>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.86688@971471</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K27">
         <v>5350</v>
@@ -2433,36 +2245,52 @@
         <v>510</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" t="s">
-        <v>22</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>98723V971842</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Veumveien</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>FV381 S1D1 m680</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>fv. 381</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
       </c>
       <c r="G28">
-        <v>59.224744999999999</v>
+        <v>59.224745</v>
       </c>
       <c r="H28">
         <v>10.929511</v>
       </c>
-      <c r="I28" t="s">
-        <v>139</v>
-      </c>
-      <c r="J28" t="s">
-        <v>24</v>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0.98723@971842</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K28">
         <v>6180</v>
@@ -2486,36 +2314,52 @@
         <v>370</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" t="s">
-        <v>22</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>45854V971841</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nordre Veum</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>FV381 S1D1 m7711</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>fv. 381</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
       </c>
       <c r="G29">
         <v>59.282975</v>
       </c>
       <c r="H29">
-        <v>10.939785000000001</v>
-      </c>
-      <c r="I29" t="s">
-        <v>143</v>
-      </c>
-      <c r="J29" t="s">
-        <v>24</v>
+        <v>10.939785</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.45854@971841</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K29">
         <v>2260</v>
@@ -2539,24 +2383,36 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" t="s">
-        <v>32</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>07156V971848</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Grøte bru</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>FV581 S1D1 m707</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>fv. 581</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Østfold</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sarpsborg</t>
+        </is>
       </c>
       <c r="G30">
         <v>59.277749</v>
@@ -2564,11 +2420,15 @@
       <c r="H30">
         <v>11.136839</v>
       </c>
-      <c r="I30" t="s">
-        <v>148</v>
-      </c>
-      <c r="J30" t="s">
-        <v>24</v>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.0716@971848</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K30">
         <v>6670</v>
@@ -2598,98 +2458,116 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:P57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>trp_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>road_category_and_number</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>jan</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>feb</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mar</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>apr</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>mai</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>jun</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>jul</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aug</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>sep</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>okt</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>des</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>24062V3324514</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Borge skole</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fv. 130</t>
+        </is>
       </c>
       <c r="D2">
         <v>2024</v>
       </c>
       <c r="E2">
-        <v>-8.8699999999999992</v>
+        <v>-8.869999999999999</v>
       </c>
       <c r="F2">
         <v>-3.3</v>
@@ -2725,15 +2603,21 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" t="s">
-        <v>121</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>24062V3324514</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Borge skole</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>fv. 130</t>
+        </is>
       </c>
       <c r="D3">
         <v>2025</v>
@@ -2762,16 +2646,25 @@
       <c r="L3">
         <v>1.24</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
+      <c r="M3">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>29444V971469</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fredrikstad bru vest</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>rv. 110</t>
+        </is>
       </c>
       <c r="D4">
         <v>2024</v>
@@ -2801,7 +2694,7 @@
         <v>-3.32</v>
       </c>
       <c r="M4">
-        <v>-4.5999999999999996</v>
+        <v>-4.6</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -2813,15 +2706,21 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>29444V971469</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fredrikstad bru vest</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>rv. 110</t>
+        </is>
       </c>
       <c r="D5">
         <v>2025</v>
@@ -2850,16 +2749,25 @@
       <c r="L5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
+      <c r="M5">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>47762V971800</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fylkeshuset</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>fv. 109</t>
+        </is>
       </c>
       <c r="D6">
         <v>2024</v>
@@ -2874,13 +2782,13 @@
         <v>-13.09</v>
       </c>
       <c r="H6">
-        <v>8.11</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I6">
         <v>13.72</v>
       </c>
       <c r="K6">
-        <v>-4.4400000000000004</v>
+        <v>-4.44</v>
       </c>
       <c r="L6">
         <v>-1.9</v>
@@ -2892,15 +2800,21 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>47762V971800</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fylkeshuset</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>fv. 109</t>
+        </is>
       </c>
       <c r="D7">
         <v>2025</v>
@@ -2917,16 +2831,25 @@
       <c r="L7">
         <v>-5.16</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
+      <c r="M7">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>69356V971439</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Glemmen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>fv. 109</t>
+        </is>
       </c>
       <c r="D8">
         <v>2024</v>
@@ -2968,15 +2891,21 @@
         <v>-3.67</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>69356V971439</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Glemmen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fv. 109</t>
+        </is>
       </c>
       <c r="D9">
         <v>2025</v>
@@ -2985,7 +2914,7 @@
         <v>-2.66</v>
       </c>
       <c r="F9">
-        <v>-5.0999999999999996</v>
+        <v>-5.1</v>
       </c>
       <c r="G9">
         <v>3.97</v>
@@ -3005,16 +2934,25 @@
       <c r="L9">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" t="s">
-        <v>147</v>
+      <c r="M9">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>07156V971848</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Grøte bru</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>fv. 581</t>
+        </is>
       </c>
       <c r="D10">
         <v>2024</v>
@@ -3029,10 +2967,10 @@
         <v>-7.44</v>
       </c>
       <c r="H10">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I10">
-        <v>-8.6999999999999993</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="L10">
         <v>-5.13</v>
@@ -3044,21 +2982,27 @@
         <v>-4.43</v>
       </c>
       <c r="O10">
-        <v>-4.6100000000000003</v>
+        <v>-4.61</v>
       </c>
       <c r="P10">
-        <v>-2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" t="s">
-        <v>147</v>
+        <v>-2.45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07156V971848</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Grøte bru</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>fv. 581</t>
+        </is>
       </c>
       <c r="D11">
         <v>2025</v>
@@ -3073,7 +3017,7 @@
         <v>4.79</v>
       </c>
       <c r="H11">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="I11">
         <v>10.09</v>
@@ -3085,18 +3029,27 @@
         <v>7.58</v>
       </c>
       <c r="L11">
-        <v>4.8600000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
+        <v>4.86</v>
+      </c>
+      <c r="M11">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>88954V971483</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hafslund sør</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>rv. 22</t>
+        </is>
       </c>
       <c r="D12">
         <v>2024</v>
@@ -3105,7 +3058,7 @@
         <v>-1.21</v>
       </c>
       <c r="F12">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="G12">
         <v>-5.45</v>
@@ -3123,10 +3076,10 @@
         <v>-9.18</v>
       </c>
       <c r="L12">
-        <v>-9.2100000000000009</v>
+        <v>-9.210000000000001</v>
       </c>
       <c r="M12">
-        <v>-9.1300000000000008</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="N12">
         <v>-7.04</v>
@@ -3138,15 +3091,21 @@
         <v>-6.61</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>88954V971483</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hafslund sør</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>rv. 22</t>
+        </is>
       </c>
       <c r="D13">
         <v>2025</v>
@@ -3158,7 +3117,7 @@
         <v>-6.38</v>
       </c>
       <c r="G13">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="H13">
         <v>-1.22</v>
@@ -3175,25 +3134,34 @@
       <c r="L13">
         <v>-0.99</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
+      <c r="M13">
+        <v>-0.99</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>87740V971816</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hafslund øst</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>rv. 22</t>
+        </is>
       </c>
       <c r="D14">
         <v>2024</v>
       </c>
       <c r="E14">
-        <v>-8.6199999999999992</v>
+        <v>-8.619999999999999</v>
       </c>
       <c r="F14">
-        <v>-5.0599999999999996</v>
+        <v>-5.06</v>
       </c>
       <c r="G14">
         <v>-10.76</v>
@@ -3226,29 +3194,41 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>87740V971816</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hafslund øst</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>rv. 22</t>
+        </is>
       </c>
       <c r="D15">
         <v>2025</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>96583V971490</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hauge bru</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>fv. 112</t>
+        </is>
       </c>
       <c r="D16">
         <v>2024</v>
@@ -3266,7 +3246,7 @@
         <v>12.6</v>
       </c>
       <c r="I16">
-        <v>-1.1599999999999999</v>
+        <v>-1.16</v>
       </c>
       <c r="J16">
         <v>-3.07</v>
@@ -3290,15 +3270,21 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" t="s">
-        <v>84</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>96583V971490</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Hauge bru</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>fv. 112</t>
+        </is>
       </c>
       <c r="D17">
         <v>2025</v>
@@ -3324,16 +3310,25 @@
       <c r="L17">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
+      <c r="M17">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>71595V971806</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hvitsten</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>rv. 22</t>
+        </is>
       </c>
       <c r="D18">
         <v>2024</v>
@@ -3372,18 +3367,24 @@
         <v>-3.09</v>
       </c>
       <c r="P18">
-        <v>-4.1500000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
+        <v>-4.15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>71595V971806</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hvitsten</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>rv. 22</t>
+        </is>
       </c>
       <c r="D19">
         <v>2025</v>
@@ -3398,7 +3399,7 @@
         <v>4.38</v>
       </c>
       <c r="H19">
-        <v>8.6300000000000008</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="I19">
         <v>6.06</v>
@@ -3412,22 +3413,31 @@
       <c r="L19">
         <v>2.83</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
+      <c r="M19">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>82913V971429</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Kråkerøy bru</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>fv. 108</t>
+        </is>
       </c>
       <c r="D20">
         <v>2024</v>
       </c>
       <c r="E20">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="F20">
         <v>8.09</v>
@@ -3436,7 +3446,7 @@
         <v>-0.87</v>
       </c>
       <c r="H20">
-        <v>9.2100000000000009</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="I20">
         <v>8.26</v>
@@ -3445,7 +3455,7 @@
         <v>3.65</v>
       </c>
       <c r="K20">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="L20">
         <v>-6.58</v>
@@ -3454,24 +3464,30 @@
         <v>-6.17</v>
       </c>
       <c r="N20">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="O20">
         <v>2.9</v>
       </c>
       <c r="P20">
-        <v>8.7899999999999991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
+        <v>8.789999999999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>82913V971429</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Kråkerøy bru</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>fv. 108</t>
+        </is>
       </c>
       <c r="D21">
         <v>2025</v>
@@ -3486,7 +3502,7 @@
         <v>13.45</v>
       </c>
       <c r="H21">
-        <v>8.4700000000000006</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="I21">
         <v>7.56</v>
@@ -3497,22 +3513,31 @@
       <c r="K21">
         <v>10.79</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" t="s">
-        <v>138</v>
+      <c r="M21">
+        <v>8.470000000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>45854V971841</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nordre Veum</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>fv. 381</t>
+        </is>
       </c>
       <c r="D22">
         <v>2024</v>
       </c>
       <c r="E22">
-        <v>-17.940000000000001</v>
+        <v>-17.94</v>
       </c>
       <c r="F22">
         <v>-11.45</v>
@@ -3530,7 +3555,7 @@
         <v>-11.03</v>
       </c>
       <c r="K22">
-        <v>-9.0399999999999991</v>
+        <v>-9.039999999999999</v>
       </c>
       <c r="L22">
         <v>-10.93</v>
@@ -3545,15 +3570,21 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" t="s">
-        <v>138</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>45854V971841</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nordre Veum</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>fv. 381</t>
+        </is>
       </c>
       <c r="D23">
         <v>2025</v>
@@ -3580,15 +3611,21 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>20</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>31043V971805</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Rakkestadsvingen nord</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>rv. 22</t>
+        </is>
       </c>
       <c r="D24">
         <v>2024</v>
@@ -3603,7 +3640,7 @@
         <v>1.76</v>
       </c>
       <c r="J24">
-        <v>-4.3600000000000003</v>
+        <v>-4.36</v>
       </c>
       <c r="K24">
         <v>-2.5</v>
@@ -3624,15 +3661,21 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>31043V971805</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Rakkestadsvingen nord</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>rv. 22</t>
+        </is>
       </c>
       <c r="D25">
         <v>2025</v>
@@ -3661,16 +3704,25 @@
       <c r="L25">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" t="s">
-        <v>121</v>
+      <c r="M25">
+        <v>-2.07</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>06966V971804</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Rakkestadsvingen øst</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>fv. 130</t>
+        </is>
       </c>
       <c r="D26">
         <v>2024</v>
@@ -3706,21 +3758,27 @@
         <v>-3.51</v>
       </c>
       <c r="O26">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="P26">
         <v>4.28</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" t="s">
-        <v>121</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>06966V971804</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Rakkestadsvingen øst</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>fv. 130</t>
+        </is>
       </c>
       <c r="D27">
         <v>2025</v>
@@ -3735,7 +3793,7 @@
         <v>9.93</v>
       </c>
       <c r="H27">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="I27">
         <v>3.62</v>
@@ -3744,21 +3802,30 @@
         <v>4.71</v>
       </c>
       <c r="K27">
-        <v>8.2799999999999994</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="L27">
-        <v>4.4400000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" t="s">
-        <v>63</v>
+        <v>4.44</v>
+      </c>
+      <c r="M27">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>26581V971445</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Rolvsøysund bru</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>fv. 109</t>
+        </is>
       </c>
       <c r="D28">
         <v>2024</v>
@@ -3794,21 +3861,27 @@
         <v>-2.41</v>
       </c>
       <c r="O28">
-        <v>-2.0099999999999998</v>
+        <v>-2.01</v>
       </c>
       <c r="P28">
-        <v>-2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
+        <v>-2.22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>26581V971445</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Rolvsøysund bru</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>fv. 109</t>
+        </is>
       </c>
       <c r="D29">
         <v>2025</v>
@@ -3837,16 +3910,25 @@
       <c r="L29">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" t="s">
-        <v>108</v>
+      <c r="M29">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>16035V971817</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sarpsfossen bru</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>fv. 118</t>
+        </is>
       </c>
       <c r="D30">
         <v>2024</v>
@@ -3882,21 +3964,27 @@
         <v>-7.83</v>
       </c>
       <c r="O30">
-        <v>-8.11</v>
+        <v>-8.109999999999999</v>
       </c>
       <c r="P30">
         <v>-6.35</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" t="s">
-        <v>108</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>16035V971817</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sarpsfossen bru</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>fv. 118</t>
+        </is>
       </c>
       <c r="D31">
         <v>2025</v>
@@ -3925,16 +4013,25 @@
       <c r="L31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
+      <c r="M31">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>05882V3188133</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Simo</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>rv. 110</t>
+        </is>
       </c>
       <c r="D32">
         <v>2024</v>
@@ -3970,21 +4067,27 @@
         <v>0.54</v>
       </c>
       <c r="O32">
-        <v>0.56000000000000005</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P32">
         <v>0.87</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>05882V3188133</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Simo</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>rv. 110</t>
+        </is>
       </c>
       <c r="D33">
         <v>2025</v>
@@ -4005,7 +4108,7 @@
         <v>1.17</v>
       </c>
       <c r="J33">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="K33">
         <v>5.94</v>
@@ -4013,16 +4116,25 @@
       <c r="L33">
         <v>2.04</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" t="s">
-        <v>108</v>
+      <c r="M33">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>13990V971815</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Skjeberg nord</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>fv. 118</t>
+        </is>
       </c>
       <c r="D34">
         <v>2024</v>
@@ -4031,7 +4143,7 @@
         <v>-0.54</v>
       </c>
       <c r="F34">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G34">
         <v>3.57</v>
@@ -4046,13 +4158,13 @@
         <v>0.83</v>
       </c>
       <c r="K34">
-        <v>10.220000000000001</v>
+        <v>10.22</v>
       </c>
       <c r="L34">
         <v>9.66</v>
       </c>
       <c r="N34">
-        <v>10.119999999999999</v>
+        <v>10.12</v>
       </c>
       <c r="O34">
         <v>6.73</v>
@@ -4061,27 +4173,33 @@
         <v>11.93</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" t="s">
-        <v>108</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>13990V971815</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Skjeberg nord</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>fv. 118</t>
+        </is>
       </c>
       <c r="D35">
         <v>2025</v>
       </c>
       <c r="E35">
-        <v>9.11</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="F35">
         <v>6.79</v>
       </c>
       <c r="G35">
-        <v>8.7799999999999994</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="H35">
         <v>2.81</v>
@@ -4093,27 +4211,33 @@
         <v>1.44</v>
       </c>
       <c r="K35">
-        <v>8.64</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="L35">
         <v>2.23</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" t="s">
-        <v>98</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>92069V971506</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Skåra</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>fv. 116</t>
+        </is>
       </c>
       <c r="D36">
         <v>2024</v>
       </c>
       <c r="E36">
-        <v>-2.0699999999999998</v>
+        <v>-2.07</v>
       </c>
       <c r="F36">
         <v>3.14</v>
@@ -4143,21 +4267,27 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" t="s">
-        <v>98</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>92069V971506</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Skåra</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>fv. 116</t>
+        </is>
       </c>
       <c r="D37">
         <v>2025</v>
       </c>
       <c r="E37">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="F37">
         <v>-1.22</v>
@@ -4175,55 +4305,76 @@
         <v>3.83</v>
       </c>
       <c r="K37">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L37">
         <v>1.57</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" t="s">
-        <v>121</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>54674V971471</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Solberg vest</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>fv. 130</t>
+        </is>
       </c>
       <c r="D38">
         <v>2024</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" t="s">
-        <v>121</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>54674V971471</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Solberg vest</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>fv. 130</t>
+        </is>
       </c>
       <c r="D39">
         <v>2025</v>
       </c>
       <c r="K39">
-        <v>9.7200000000000006</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="L39">
         <v>5.72</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>131</v>
-      </c>
-      <c r="B40" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" t="s">
-        <v>121</v>
+      <c r="M39">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>86688V971471</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Solberg øst</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>fv. 130</t>
+        </is>
       </c>
       <c r="D40">
         <v>2024</v>
@@ -4232,13 +4383,13 @@
         <v>5.64</v>
       </c>
       <c r="F40">
-        <v>8.1199999999999992</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="G40">
         <v>6.62</v>
       </c>
       <c r="H40">
-        <v>9.3699999999999992</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="I40">
         <v>7.43</v>
@@ -4259,27 +4410,33 @@
         <v>0.22</v>
       </c>
       <c r="O40">
-        <v>-0.56000000000000005</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="P40">
         <v>1.57</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" t="s">
-        <v>121</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>86688V971471</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Solberg øst</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>fv. 130</t>
+        </is>
       </c>
       <c r="D41">
         <v>2025</v>
       </c>
       <c r="E41">
-        <v>-0.28000000000000003</v>
+        <v>-0.28</v>
       </c>
       <c r="F41">
         <v>-1.86</v>
@@ -4302,716 +4459,772 @@
       <c r="L41">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" t="s">
-        <v>41</v>
+      <c r="M41">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>29937V971442</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Stabburet</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>fv. 109</t>
+        </is>
       </c>
       <c r="D42">
         <v>2024</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" t="s">
-        <v>41</v>
+      <c r="E42">
+        <v>6.35</v>
+      </c>
+      <c r="F42">
+        <v>6.78</v>
+      </c>
+      <c r="G42">
+        <v>-2.94</v>
+      </c>
+      <c r="H42">
+        <v>9.44</v>
+      </c>
+      <c r="I42">
+        <v>1.36</v>
+      </c>
+      <c r="J42">
+        <v>-5.96</v>
+      </c>
+      <c r="K42">
+        <v>-4.27</v>
+      </c>
+      <c r="L42">
+        <v>-6</v>
+      </c>
+      <c r="M42">
+        <v>-4.74</v>
+      </c>
+      <c r="N42">
+        <v>-1.35</v>
+      </c>
+      <c r="O42">
+        <v>-4.85</v>
+      </c>
+      <c r="P42">
+        <v>-4.41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>29937V971442</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Stabburet</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>fv. 109</t>
+        </is>
       </c>
       <c r="D43">
         <v>2025</v>
       </c>
       <c r="E43">
-        <v>2.75</v>
+        <v>-2.85</v>
       </c>
       <c r="F43">
-        <v>-3.25</v>
+        <v>-5.42</v>
       </c>
       <c r="G43">
-        <v>-1.3</v>
+        <v>2.81</v>
       </c>
       <c r="H43">
-        <v>-10.7</v>
+        <v>-4.4</v>
       </c>
       <c r="I43">
-        <v>-9.18</v>
+        <v>1.05</v>
       </c>
       <c r="J43">
-        <v>-6.81</v>
+        <v>-0.44</v>
       </c>
       <c r="K43">
-        <v>-5.84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" t="s">
-        <v>63</v>
+        <v>0.51</v>
+      </c>
+      <c r="L43">
+        <v>-1.01</v>
+      </c>
+      <c r="M43">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>93031V971807</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tingvoll</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>fv. 114</t>
+        </is>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>6.35</v>
+        <v>-13.07</v>
       </c>
       <c r="F44">
-        <v>6.78</v>
+        <v>-9.460000000000001</v>
       </c>
       <c r="G44">
-        <v>-2.94</v>
+        <v>-10.3</v>
       </c>
       <c r="H44">
-        <v>9.44</v>
-      </c>
-      <c r="I44">
-        <v>1.36</v>
-      </c>
-      <c r="J44">
-        <v>-5.96</v>
-      </c>
-      <c r="K44">
-        <v>-4.2699999999999996</v>
+        <v>9.98</v>
       </c>
       <c r="L44">
-        <v>-6</v>
+        <v>-5.88</v>
       </c>
       <c r="M44">
-        <v>-4.74</v>
+        <v>-5.34</v>
       </c>
       <c r="N44">
-        <v>-1.35</v>
+        <v>-4.37</v>
       </c>
       <c r="O44">
-        <v>-4.8499999999999996</v>
+        <v>-2.09</v>
       </c>
       <c r="P44">
-        <v>-4.41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" t="s">
-        <v>63</v>
+        <v>-6.68</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>93031V971807</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Tingvoll</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>fv. 114</t>
+        </is>
       </c>
       <c r="D45">
         <v>2025</v>
       </c>
       <c r="E45">
-        <v>-2.85</v>
+        <v>2.2</v>
       </c>
       <c r="F45">
-        <v>-5.42</v>
+        <v>-1.44</v>
       </c>
       <c r="G45">
-        <v>2.81</v>
+        <v>1.22</v>
       </c>
       <c r="H45">
-        <v>-4.4000000000000004</v>
+        <v>-3.89</v>
       </c>
       <c r="I45">
-        <v>1.05</v>
+        <v>-0.34</v>
       </c>
       <c r="J45">
-        <v>-0.44</v>
+        <v>3.24</v>
       </c>
       <c r="K45">
-        <v>0.51</v>
+        <v>5.01</v>
       </c>
       <c r="L45">
-        <v>-1.01</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" t="s">
-        <v>89</v>
+        <v>8.140000000000001</v>
+      </c>
+      <c r="M45">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>28001V971448</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Torsbekkdalen</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>fv. 109</t>
+        </is>
       </c>
       <c r="D46">
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-13.07</v>
+        <v>-1.17</v>
       </c>
       <c r="F46">
-        <v>-9.4600000000000009</v>
+        <v>5.26</v>
       </c>
       <c r="G46">
-        <v>-10.3</v>
+        <v>6.7</v>
       </c>
       <c r="H46">
-        <v>9.98</v>
+        <v>18.69</v>
+      </c>
+      <c r="I46">
+        <v>52.17</v>
+      </c>
+      <c r="J46">
+        <v>39.91</v>
+      </c>
+      <c r="K46">
+        <v>9.58</v>
       </c>
       <c r="L46">
-        <v>-5.88</v>
+        <v>9.52</v>
       </c>
       <c r="M46">
-        <v>-5.34</v>
+        <v>3.92</v>
       </c>
       <c r="N46">
-        <v>-4.37</v>
+        <v>7.23</v>
       </c>
       <c r="O46">
-        <v>-2.09</v>
+        <v>1.63</v>
       </c>
       <c r="P46">
-        <v>-6.68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" t="s">
-        <v>89</v>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>28001V971448</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Torsbekkdalen</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>fv. 109</t>
+        </is>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>2.2000000000000002</v>
+        <v>3.52</v>
       </c>
       <c r="F47">
-        <v>-1.44</v>
+        <v>-3.81</v>
       </c>
       <c r="G47">
-        <v>1.22</v>
+        <v>-10.18</v>
       </c>
       <c r="H47">
-        <v>-3.89</v>
+        <v>-15.61</v>
       </c>
       <c r="I47">
-        <v>-0.34</v>
+        <v>-10.44</v>
       </c>
       <c r="J47">
-        <v>3.24</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="K47">
-        <v>5.01</v>
+        <v>-6.59</v>
       </c>
       <c r="L47">
-        <v>8.14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" t="s">
-        <v>63</v>
+        <v>-8.06</v>
+      </c>
+      <c r="M47">
+        <v>-0.87</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>82998V971817</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Tune kirke</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>fv. 118</t>
+        </is>
       </c>
       <c r="D48">
         <v>2024</v>
       </c>
       <c r="E48">
-        <v>-1.17</v>
+        <v>-5.76</v>
       </c>
       <c r="F48">
-        <v>5.26</v>
+        <v>-3.06</v>
       </c>
       <c r="G48">
-        <v>6.7</v>
+        <v>-10.41</v>
       </c>
       <c r="H48">
-        <v>18.690000000000001</v>
+        <v>-0.29</v>
       </c>
       <c r="I48">
-        <v>52.17</v>
+        <v>-13.03</v>
       </c>
       <c r="J48">
-        <v>39.909999999999997</v>
+        <v>-16.21</v>
       </c>
       <c r="K48">
-        <v>9.58</v>
+        <v>-7.98</v>
       </c>
       <c r="L48">
-        <v>9.52</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="M48">
-        <v>3.92</v>
+        <v>-7.98</v>
       </c>
       <c r="N48">
-        <v>7.23</v>
+        <v>-6.68</v>
       </c>
       <c r="O48">
-        <v>1.63</v>
+        <v>-8.220000000000001</v>
       </c>
       <c r="P48">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" t="s">
-        <v>63</v>
+        <v>-5.26</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>82998V971817</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Tune kirke</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>fv. 118</t>
+        </is>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
-      <c r="E49">
-        <v>3.52</v>
-      </c>
-      <c r="F49">
-        <v>-3.81</v>
-      </c>
-      <c r="G49">
-        <v>-10.18</v>
-      </c>
-      <c r="H49">
-        <v>-15.61</v>
-      </c>
-      <c r="I49">
-        <v>-10.44</v>
-      </c>
-      <c r="J49">
-        <v>-9.64</v>
-      </c>
-      <c r="K49">
-        <v>-6.59</v>
-      </c>
-      <c r="L49">
-        <v>-8.06</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" t="s">
-        <v>108</v>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>98723V971842</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Veumveien</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>fv. 381</t>
+        </is>
       </c>
       <c r="D50">
         <v>2024</v>
       </c>
       <c r="E50">
-        <v>-5.76</v>
+        <v>5.92</v>
       </c>
       <c r="F50">
-        <v>-3.06</v>
+        <v>7.23</v>
       </c>
       <c r="G50">
-        <v>-10.41</v>
+        <v>-3.77</v>
       </c>
       <c r="H50">
-        <v>-0.28999999999999998</v>
+        <v>8.68</v>
       </c>
       <c r="I50">
-        <v>-13.03</v>
+        <v>-2.65</v>
       </c>
       <c r="J50">
-        <v>-16.21</v>
+        <v>-11.03</v>
       </c>
       <c r="K50">
-        <v>-7.98</v>
+        <v>-9.789999999999999</v>
       </c>
       <c r="L50">
-        <v>-9.6999999999999993</v>
+        <v>-5.31</v>
       </c>
       <c r="M50">
-        <v>-7.98</v>
+        <v>-4.5</v>
       </c>
       <c r="N50">
-        <v>-6.68</v>
+        <v>-3.04</v>
       </c>
       <c r="O50">
-        <v>-8.2200000000000006</v>
+        <v>-8.1</v>
       </c>
       <c r="P50">
-        <v>-5.26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" t="s">
-        <v>108</v>
+        <v>-5.06</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>98723V971842</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Veumveien</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>fv. 381</t>
+        </is>
       </c>
       <c r="D51">
         <v>2025</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>135</v>
-      </c>
-      <c r="B52" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" t="s">
-        <v>138</v>
+      <c r="E51">
+        <v>-8</v>
+      </c>
+      <c r="F51">
+        <v>-7.24</v>
+      </c>
+      <c r="G51">
+        <v>-0.14</v>
+      </c>
+      <c r="H51">
+        <v>-4.91</v>
+      </c>
+      <c r="I51">
+        <v>0.13</v>
+      </c>
+      <c r="J51">
+        <v>3.01</v>
+      </c>
+      <c r="K51">
+        <v>0.95</v>
+      </c>
+      <c r="L51">
+        <v>1.93</v>
+      </c>
+      <c r="M51">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>08132V1984223</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Værstebrua</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>fv. 108</t>
+        </is>
       </c>
       <c r="D52">
         <v>2024</v>
       </c>
       <c r="E52">
-        <v>5.92</v>
+        <v>-8.18</v>
       </c>
       <c r="F52">
-        <v>7.23</v>
+        <v>-1.68</v>
       </c>
       <c r="G52">
-        <v>-3.77</v>
+        <v>-7.81</v>
       </c>
       <c r="H52">
-        <v>8.68</v>
+        <v>2.56</v>
       </c>
       <c r="I52">
-        <v>-2.65</v>
+        <v>-7.99</v>
       </c>
       <c r="J52">
-        <v>-11.03</v>
+        <v>-12.89</v>
       </c>
       <c r="K52">
-        <v>-9.7899999999999991</v>
+        <v>-11.65</v>
       </c>
       <c r="L52">
-        <v>-5.31</v>
+        <v>-8.220000000000001</v>
       </c>
       <c r="M52">
-        <v>-4.5</v>
+        <v>-7.09</v>
       </c>
       <c r="N52">
-        <v>-3.04</v>
+        <v>4.61</v>
       </c>
       <c r="O52">
-        <v>-8.1</v>
+        <v>12.84</v>
       </c>
       <c r="P52">
-        <v>-5.0599999999999996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>135</v>
-      </c>
-      <c r="B53" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
+        <v>17.07</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>08132V1984223</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Værstebrua</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>fv. 108</t>
+        </is>
       </c>
       <c r="D53">
         <v>2025</v>
       </c>
       <c r="E53">
-        <v>-8</v>
+        <v>8.59</v>
       </c>
       <c r="F53">
-        <v>-7.24</v>
+        <v>10.83</v>
       </c>
       <c r="G53">
-        <v>-0.14000000000000001</v>
+        <v>16.02</v>
       </c>
       <c r="H53">
-        <v>-4.91</v>
+        <v>9.69</v>
       </c>
       <c r="I53">
-        <v>0.13</v>
+        <v>12.17</v>
       </c>
       <c r="J53">
-        <v>3.01</v>
+        <v>20.97</v>
       </c>
       <c r="K53">
-        <v>0.95</v>
-      </c>
-      <c r="L53">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" t="s">
-        <v>54</v>
+        <v>27.27</v>
+      </c>
+      <c r="M53">
+        <v>19.38</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>61693V971813</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Ålekilene</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>fv. 117</t>
+        </is>
       </c>
       <c r="D54">
         <v>2024</v>
       </c>
       <c r="E54">
-        <v>-8.18</v>
+        <v>-2.83</v>
       </c>
       <c r="F54">
-        <v>-1.68</v>
+        <v>-0.75</v>
       </c>
       <c r="G54">
-        <v>-7.81</v>
+        <v>-3.1</v>
       </c>
       <c r="H54">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="I54">
-        <v>-7.99</v>
+        <v>1.99</v>
       </c>
       <c r="J54">
-        <v>-12.89</v>
+        <v>-6.92</v>
       </c>
       <c r="K54">
-        <v>-11.65</v>
+        <v>-1.06</v>
       </c>
       <c r="L54">
-        <v>-8.2200000000000006</v>
-      </c>
-      <c r="M54">
-        <v>-7.09</v>
+        <v>1.59</v>
       </c>
       <c r="N54">
-        <v>4.6100000000000003</v>
+        <v>1.38</v>
       </c>
       <c r="O54">
-        <v>12.84</v>
+        <v>1.6</v>
       </c>
       <c r="P54">
-        <v>17.07</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" t="s">
-        <v>54</v>
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>61693V971813</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Ålekilene</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>fv. 117</t>
+        </is>
       </c>
       <c r="D55">
         <v>2025</v>
       </c>
       <c r="E55">
-        <v>8.59</v>
+        <v>5.74</v>
       </c>
       <c r="F55">
-        <v>10.83</v>
+        <v>1.78</v>
       </c>
       <c r="G55">
-        <v>16.02</v>
+        <v>5.56</v>
       </c>
       <c r="H55">
-        <v>9.69</v>
+        <v>5.39</v>
       </c>
       <c r="I55">
-        <v>12.17</v>
+        <v>0.47</v>
       </c>
       <c r="J55">
-        <v>20.97</v>
+        <v>4.75</v>
       </c>
       <c r="K55">
-        <v>27.27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56">
-        <v>2024</v>
-      </c>
-      <c r="E56">
-        <v>-2.83</v>
-      </c>
-      <c r="F56">
-        <v>-0.75</v>
-      </c>
-      <c r="G56">
-        <v>-3.1</v>
-      </c>
-      <c r="H56">
-        <v>2.36</v>
-      </c>
-      <c r="I56">
-        <v>1.99</v>
-      </c>
-      <c r="J56">
-        <v>-6.92</v>
-      </c>
-      <c r="K56">
-        <v>-1.06</v>
-      </c>
-      <c r="L56">
-        <v>1.59</v>
-      </c>
-      <c r="N56">
-        <v>1.38</v>
-      </c>
-      <c r="O56">
-        <v>1.6</v>
-      </c>
-      <c r="P56">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57">
-        <v>2025</v>
-      </c>
-      <c r="E57">
-        <v>5.74</v>
-      </c>
-      <c r="F57">
-        <v>1.78</v>
-      </c>
-      <c r="G57">
-        <v>5.56</v>
-      </c>
-      <c r="H57">
-        <v>5.39</v>
-      </c>
-      <c r="I57">
-        <v>0.47</v>
-      </c>
-      <c r="J57">
-        <v>4.75</v>
-      </c>
-      <c r="K57">
         <v>12.59</v>
       </c>
-      <c r="L57">
+      <c r="L55">
         <v>1.93</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P57" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="2025"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>year_base</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>index_p</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>index_i</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>n_trp</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>standard_error</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>index_type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>year_from_to</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>area_name</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>month_name_short</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ci_lower</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ci_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -5025,7 +5238,7 @@
         <v>-2.1</v>
       </c>
       <c r="E2">
-        <v>0.97899999999999998</v>
+        <v>0.979</v>
       </c>
       <c r="F2">
         <v>26</v>
@@ -5033,20 +5246,30 @@
       <c r="G2">
         <v>0.9629716560401228</v>
       </c>
-      <c r="H2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L2" t="s">
-        <v>178</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Nedre Glomma</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>des</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>jan-des</t>
+        </is>
       </c>
       <c r="M2">
         <v>-4</v>
@@ -5055,7 +5278,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -5063,40 +5286,50 @@
         <v>2025</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1.0143</v>
+        <v>1.0196</v>
       </c>
       <c r="F3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>1.0059021082185571</v>
-      </c>
-      <c r="H3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L3" t="s">
-        <v>180</v>
+        <v>0.9699107532353879</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Nedre Glomma</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>sep</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>jan-sep</t>
+        </is>
       </c>
       <c r="M3">
-        <v>-0.6</v>
+        <v>0.1</v>
       </c>
       <c r="N3">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>
@@ -5105,98 +5338,112 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index_i</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>index_p</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n_trp</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>n_eff</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sd_sample_p</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>standard_error_p</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ci_lower</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ci_upper</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>index_period</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>month_object</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>month_n</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>window</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
-        <v>0.97690990001742462</v>
+        <v>0.9769099000174246</v>
       </c>
       <c r="B2">
-        <v>-2.3090099982575381</v>
+        <v>-2.309009998257538</v>
       </c>
       <c r="C2">
         <v>18</v>
       </c>
       <c r="D2">
-        <v>14.095846204743671</v>
+        <v>14.09584620474367</v>
       </c>
       <c r="E2">
-        <v>4.1482942787435606</v>
+        <v>4.148294278743561</v>
       </c>
       <c r="F2">
-        <v>1.1049025635451271</v>
+        <v>1.104902563545127</v>
       </c>
       <c r="G2">
-        <v>-4.5999999999999996</v>
+        <v>-4.6</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>188</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023 - (jan 2024 - des 2024)</t>
+        </is>
       </c>
       <c r="J2" s="2">
         <v>45627</v>
@@ -5207,13 +5454,15 @@
       <c r="L2">
         <v>2024</v>
       </c>
-      <c r="M2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
-        <v>0.97727067764172348</v>
+        <v>0.9772706776417235</v>
       </c>
       <c r="B3">
         <v>-2.272932235827652</v>
@@ -5222,13 +5471,13 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>14.095846204743671</v>
+        <v>14.09584620474367</v>
       </c>
       <c r="E3">
-        <v>4.2776067616590892</v>
+        <v>4.277606761659089</v>
       </c>
       <c r="F3">
-        <v>1.1393450799798639</v>
+        <v>1.139345079979864</v>
       </c>
       <c r="G3">
         <v>-4.7</v>
@@ -5236,8 +5485,10 @@
       <c r="H3">
         <v>0.1</v>
       </c>
-      <c r="I3" t="s">
-        <v>190</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023 - (feb 2024 - jan 2025)</t>
+        </is>
       </c>
       <c r="J3" s="2">
         <v>45658</v>
@@ -5248,13 +5499,15 @@
       <c r="L3">
         <v>2025</v>
       </c>
-      <c r="M3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
-        <v>0.97420736895427706</v>
+        <v>0.9742073689542771</v>
       </c>
       <c r="B4">
         <v>-2.579263104572294</v>
@@ -5263,22 +5516,24 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>14.095846204743671</v>
+        <v>14.09584620474367</v>
       </c>
       <c r="E4">
-        <v>4.4007637289063926</v>
+        <v>4.400763728906393</v>
       </c>
       <c r="F4">
         <v>1.17214806831347</v>
       </c>
       <c r="G4">
-        <v>-5.0999999999999996</v>
+        <v>-5.1</v>
       </c>
       <c r="H4">
         <v>-0.1</v>
       </c>
-      <c r="I4" t="s">
-        <v>191</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023 - (mar 2024 - feb 2025)</t>
+        </is>
       </c>
       <c r="J4" s="2">
         <v>45689</v>
@@ -5289,13 +5544,15 @@
       <c r="L4">
         <v>2025</v>
       </c>
-      <c r="M4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
-        <v>0.97585404487617367</v>
+        <v>0.9758540448761737</v>
       </c>
       <c r="B5">
         <v>-2.414595512382633</v>
@@ -5304,22 +5561,24 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>13.508166256284619</v>
+        <v>13.50816625628462</v>
       </c>
       <c r="E5">
-        <v>4.3855931929779244</v>
+        <v>4.385593192977924</v>
       </c>
       <c r="F5">
-        <v>1.1932464349489951</v>
+        <v>1.193246434948995</v>
       </c>
       <c r="G5">
-        <v>-4.9000000000000004</v>
+        <v>-4.9</v>
       </c>
       <c r="H5">
         <v>0.1</v>
       </c>
-      <c r="I5" t="s">
-        <v>192</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2023 - (apr 2024 - mar 2025)</t>
+        </is>
       </c>
       <c r="J5" s="2">
         <v>45717</v>
@@ -5330,16 +5589,18 @@
       <c r="L5">
         <v>2025</v>
       </c>
-      <c r="M5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
-        <v>0.97411214263331747</v>
+        <v>0.9741121426333175</v>
       </c>
       <c r="B6">
-        <v>-2.5887857366682532</v>
+        <v>-2.588785736668253</v>
       </c>
       <c r="C6">
         <v>18</v>
@@ -5348,7 +5609,7 @@
         <v>14.16474094745808</v>
       </c>
       <c r="E6">
-        <v>4.3030836509053367</v>
+        <v>4.303083650905337</v>
       </c>
       <c r="F6">
         <v>1.143340192030887</v>
@@ -5359,8 +5620,10 @@
       <c r="H6">
         <v>-0.2</v>
       </c>
-      <c r="I6" t="s">
-        <v>193</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2023 - (mai 2024 - apr 2025)</t>
+        </is>
       </c>
       <c r="J6" s="2">
         <v>45748</v>
@@ -5371,16 +5634,18 @@
       <c r="L6">
         <v>2025</v>
       </c>
-      <c r="M6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
-        <v>0.97584822450743247</v>
+        <v>0.9758482245074325</v>
       </c>
       <c r="B7">
-        <v>-2.4151775492567529</v>
+        <v>-2.415177549256753</v>
       </c>
       <c r="C7">
         <v>18</v>
@@ -5389,7 +5654,7 @@
         <v>14.16474094745808</v>
       </c>
       <c r="E7">
-        <v>4.2652329320638449</v>
+        <v>4.265232932063845</v>
       </c>
       <c r="F7">
         <v>1.133283160455488</v>
@@ -5398,10 +5663,12 @@
         <v>-4.8</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>194</v>
+        <v>-0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2023 - (jun 2024 - mai 2025)</t>
+        </is>
       </c>
       <c r="J7" s="2">
         <v>45778</v>
@@ -5412,13 +5679,15 @@
       <c r="L7">
         <v>2025</v>
       </c>
-      <c r="M7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
-        <v>0.98326688446718169</v>
+        <v>0.9832668844671817</v>
       </c>
       <c r="B8">
         <v>-1.673311553281831</v>
@@ -5427,13 +5696,13 @@
         <v>17</v>
       </c>
       <c r="D8">
-        <v>13.196851713564561</v>
+        <v>13.19685171356456</v>
       </c>
       <c r="E8">
-        <v>4.3219574811968542</v>
+        <v>4.321957481196854</v>
       </c>
       <c r="F8">
-        <v>1.1897215319522769</v>
+        <v>1.189721531952277</v>
       </c>
       <c r="G8">
         <v>-4.2</v>
@@ -5441,8 +5710,10 @@
       <c r="H8">
         <v>0.8</v>
       </c>
-      <c r="I8" t="s">
-        <v>195</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2023 - (jul 2024 - jun 2025)</t>
+        </is>
       </c>
       <c r="J8" s="2">
         <v>45809</v>
@@ -5453,16 +5724,18 @@
       <c r="L8">
         <v>2025</v>
       </c>
-      <c r="M8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
-        <v>0.99300094751402368</v>
+        <v>0.9930009475140237</v>
       </c>
       <c r="B9">
-        <v>-0.69990524859763203</v>
+        <v>-0.699905248597632</v>
       </c>
       <c r="C9">
         <v>19</v>
@@ -5471,10 +5744,10 @@
         <v>14.72392901435027</v>
       </c>
       <c r="E9">
-        <v>5.0266299111784143</v>
+        <v>5.026629911178414</v>
       </c>
       <c r="F9">
-        <v>1.3099811719793251</v>
+        <v>1.309981171979325</v>
       </c>
       <c r="G9">
         <v>-3.5</v>
@@ -5482,8 +5755,10 @@
       <c r="H9">
         <v>2.1</v>
       </c>
-      <c r="I9" t="s">
-        <v>196</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2023 - (aug 2024 - jul 2025)</t>
+        </is>
       </c>
       <c r="J9" s="2">
         <v>45839</v>
@@ -5494,16 +5769,18 @@
       <c r="L9">
         <v>2025</v>
       </c>
-      <c r="M9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
-        <v>0.99354875807506315</v>
+        <v>0.993549527384879</v>
       </c>
       <c r="B10">
-        <v>-0.64512419249368458</v>
+        <v>-0.6450472615120995</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -5512,10 +5789,10 @@
         <v>14.72392901435027</v>
       </c>
       <c r="E10">
-        <v>5.0543448101257944</v>
+        <v>5.054406644903425</v>
       </c>
       <c r="F10">
-        <v>1.3172039030030751</v>
+        <v>1.317220017655616</v>
       </c>
       <c r="G10">
         <v>-3.4</v>
@@ -5523,8 +5800,10 @@
       <c r="H10">
         <v>2.1</v>
       </c>
-      <c r="I10" t="s">
-        <v>197</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2023 - (sep 2024 - aug 2025)</t>
+        </is>
       </c>
       <c r="J10" s="2">
         <v>45870</v>
@@ -5535,8 +5814,55 @@
       <c r="L10">
         <v>2025</v>
       </c>
-      <c r="M10" t="s">
-        <v>189</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.9991540139922993</v>
+      </c>
+      <c r="B11">
+        <v>-0.08459860077006942</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>15.71971180997949</v>
+      </c>
+      <c r="E11">
+        <v>5.216640705860183</v>
+      </c>
+      <c r="F11">
+        <v>1.315735631396686</v>
+      </c>
+      <c r="G11">
+        <v>-2.8</v>
+      </c>
+      <c r="H11">
+        <v>2.7</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2023 - (okt 2024 - sep 2025)</t>
+        </is>
+      </c>
+      <c r="J11" s="2">
+        <v>45901</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>2025</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data_indexpoints_tidy/tallmateriale_18952.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_18952.xlsx
@@ -2649,6 +2649,9 @@
       <c r="M3">
         <v>-0.44</v>
       </c>
+      <c r="N3">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2752,6 +2755,9 @@
       <c r="M5">
         <v>1.69</v>
       </c>
+      <c r="N5">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2937,6 +2943,9 @@
       <c r="M9">
         <v>3.03</v>
       </c>
+      <c r="N9">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3034,6 +3043,9 @@
       <c r="M11">
         <v>5.98</v>
       </c>
+      <c r="N11">
+        <v>5.51</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3137,6 +3149,9 @@
       <c r="M13">
         <v>-0.99</v>
       </c>
+      <c r="N13">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3313,6 +3328,9 @@
       <c r="M17">
         <v>0.26</v>
       </c>
+      <c r="N17">
+        <v>-0.8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3416,6 +3434,9 @@
       <c r="M19">
         <v>4.97</v>
       </c>
+      <c r="N19">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3516,6 +3537,9 @@
       <c r="M21">
         <v>8.470000000000001</v>
       </c>
+      <c r="N21">
+        <v>12.73</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3610,6 +3634,9 @@
       <c r="L23">
         <v>-0.06</v>
       </c>
+      <c r="N23">
+        <v>-2.52</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3707,6 +3734,9 @@
       <c r="M25">
         <v>-2.07</v>
       </c>
+      <c r="N25">
+        <v>-3.08</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3810,6 +3840,9 @@
       <c r="M27">
         <v>6.64</v>
       </c>
+      <c r="N27">
+        <v>8.869999999999999</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3913,6 +3946,9 @@
       <c r="M29">
         <v>3.21</v>
       </c>
+      <c r="N29">
+        <v>-0.49</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4016,6 +4052,9 @@
       <c r="M31">
         <v>0.55</v>
       </c>
+      <c r="N31">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4119,6 +4158,9 @@
       <c r="M33">
         <v>2.47</v>
       </c>
+      <c r="N33">
+        <v>2.66</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4216,6 +4258,9 @@
       <c r="L35">
         <v>2.23</v>
       </c>
+      <c r="N35">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4359,6 +4404,9 @@
       <c r="M39">
         <v>4.6</v>
       </c>
+      <c r="N39">
+        <v>4.99</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4462,6 +4510,9 @@
       <c r="M41">
         <v>0.99</v>
       </c>
+      <c r="N41">
+        <v>4.09</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4565,6 +4616,9 @@
       <c r="M43">
         <v>-0.45</v>
       </c>
+      <c r="N43">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4659,6 +4713,9 @@
       <c r="M45">
         <v>6.95</v>
       </c>
+      <c r="N45">
+        <v>5.54</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4762,6 +4819,9 @@
       <c r="M47">
         <v>-0.87</v>
       </c>
+      <c r="N47">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4941,6 +5001,9 @@
       <c r="M51">
         <v>1.49</v>
       </c>
+      <c r="N51">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5041,6 +5104,9 @@
       <c r="M53">
         <v>19.38</v>
       </c>
+      <c r="N53">
+        <v>17.48</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5137,6 +5203,9 @@
       </c>
       <c r="L55">
         <v>1.93</v>
+      </c>
+      <c r="N55">
+        <v>2.14</v>
       </c>
     </row>
   </sheetData>
@@ -5244,7 +5313,7 @@
         <v>26</v>
       </c>
       <c r="G2">
-        <v>0.9629716560401228</v>
+        <v>0.9676465159429686</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -5286,19 +5355,19 @@
         <v>2025</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1.0196</v>
+        <v>1.0204</v>
       </c>
       <c r="F3">
         <v>25</v>
       </c>
       <c r="G3">
-        <v>0.9699107532353879</v>
+        <v>0.9687275452614585</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -5317,12 +5386,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>okt</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>jan-sep</t>
+          <t>jan-okt</t>
         </is>
       </c>
       <c r="M3">
@@ -5339,7 +5408,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5822,10 +5891,10 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.9991540139922993</v>
+        <v>0.9991532249526388</v>
       </c>
       <c r="B11">
-        <v>-0.08459860077006942</v>
+        <v>-0.08467750473611924</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -5834,10 +5903,10 @@
         <v>15.71971180997949</v>
       </c>
       <c r="E11">
-        <v>5.216640705860183</v>
+        <v>5.216467590334918</v>
       </c>
       <c r="F11">
-        <v>1.315735631396686</v>
+        <v>1.315691968381006</v>
       </c>
       <c r="G11">
         <v>-2.8</v>
@@ -5860,6 +5929,51 @@
         <v>2025</v>
       </c>
       <c r="M11" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>1.001402751121869</v>
+      </c>
+      <c r="B12">
+        <v>0.1402751121869494</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>15.71971180997949</v>
+      </c>
+      <c r="E12">
+        <v>5.326593606543288</v>
+      </c>
+      <c r="F12">
+        <v>1.343467836346448</v>
+      </c>
+      <c r="G12">
+        <v>-2.7</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2023 - (nov 2024 - okt 2025)</t>
+        </is>
+      </c>
+      <c r="J12" s="2">
+        <v>45931</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>2025</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>12_months</t>
         </is>

--- a/data_indexpoints_tidy/tallmateriale_18952.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_18952.xlsx
@@ -1,27 +1,648 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programmering\R\byindeks\data_indexpoints_tidy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17CE747-4C2C-4C43-8497-2F7B835562B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="punkt_adt" sheetId="1" r:id="rId1"/>
     <sheet name="punktindeks_maned" sheetId="2" r:id="rId2"/>
     <sheet name="byindeks_aarlig" sheetId="3" r:id="rId3"/>
-    <sheet name="by_glid_indeks" sheetId="4" r:id="rId4"/>
+    <sheet name="byindeks_hittil" sheetId="4" r:id="rId4"/>
+    <sheet name="by_glid_indeks" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="203">
+  <si>
+    <t>trp_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>road_reference</t>
+  </si>
+  <si>
+    <t>road_category_and_number</t>
+  </si>
+  <si>
+    <t>county_name</t>
+  </si>
+  <si>
+    <t>municipality_name</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>road_link_position</t>
+  </si>
+  <si>
+    <t>traffic_type</t>
+  </si>
+  <si>
+    <t>adt</t>
+  </si>
+  <si>
+    <t>year_aadt</t>
+  </si>
+  <si>
+    <t>adt_ref</t>
+  </si>
+  <si>
+    <t>ydt_ref_light</t>
+  </si>
+  <si>
+    <t>ydt_ref_heavy</t>
+  </si>
+  <si>
+    <t>ydt_light</t>
+  </si>
+  <si>
+    <t>ydt_heavy</t>
+  </si>
+  <si>
+    <t>31043V971805</t>
+  </si>
+  <si>
+    <t>Rakkestadsvingen nord</t>
+  </si>
+  <si>
+    <t>RV22 S2D1 m745</t>
+  </si>
+  <si>
+    <t>rv. 22</t>
+  </si>
+  <si>
+    <t>Østfold</t>
+  </si>
+  <si>
+    <t>Fredrikstad</t>
+  </si>
+  <si>
+    <t>0.31054@971805</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>71595V971806</t>
+  </si>
+  <si>
+    <t>Hvitsten</t>
+  </si>
+  <si>
+    <t>RV22 S2D1 m7580</t>
+  </si>
+  <si>
+    <t>0.71596@971806</t>
+  </si>
+  <si>
+    <t>88954V971483</t>
+  </si>
+  <si>
+    <t>Hafslund sør</t>
+  </si>
+  <si>
+    <t>RV22 S3D1 m3692</t>
+  </si>
+  <si>
+    <t>Sarpsborg</t>
+  </si>
+  <si>
+    <t>0.88954@971483</t>
+  </si>
+  <si>
+    <t>87740V971816</t>
+  </si>
+  <si>
+    <t>Hafslund øst</t>
+  </si>
+  <si>
+    <t>RV22 S3D1 m4556</t>
+  </si>
+  <si>
+    <t>0.87671@971816</t>
+  </si>
+  <si>
+    <t>05882V3188133</t>
+  </si>
+  <si>
+    <t>Simo</t>
+  </si>
+  <si>
+    <t>RV110 S3D1 m2717</t>
+  </si>
+  <si>
+    <t>rv. 110</t>
+  </si>
+  <si>
+    <t>0.04838@3188133</t>
+  </si>
+  <si>
+    <t>61523V971803</t>
+  </si>
+  <si>
+    <t>St. Hansfjellet</t>
+  </si>
+  <si>
+    <t>RV110 S3D1 m4024</t>
+  </si>
+  <si>
+    <t>0.61523@971803</t>
+  </si>
+  <si>
+    <t>29444V971469</t>
+  </si>
+  <si>
+    <t>Fredrikstad bru vest</t>
+  </si>
+  <si>
+    <t>RV110 S3D1 m5815</t>
+  </si>
+  <si>
+    <t>0.29444@971469</t>
+  </si>
+  <si>
+    <t>08132V1984223</t>
+  </si>
+  <si>
+    <t>Værstebrua</t>
+  </si>
+  <si>
+    <t>FV108 S1D1 m1071</t>
+  </si>
+  <si>
+    <t>fv. 108</t>
+  </si>
+  <si>
+    <t>0.08132@1984223</t>
+  </si>
+  <si>
+    <t>82913V971429</t>
+  </si>
+  <si>
+    <t>Kråkerøy bru</t>
+  </si>
+  <si>
+    <t>FV108 S1D90 m97</t>
+  </si>
+  <si>
+    <t>0.85074@971429</t>
+  </si>
+  <si>
+    <t>69356V971439</t>
+  </si>
+  <si>
+    <t>Glemmen</t>
+  </si>
+  <si>
+    <t>FV109 S1D1 m1954</t>
+  </si>
+  <si>
+    <t>fv. 109</t>
+  </si>
+  <si>
+    <t>0.69356@971439</t>
+  </si>
+  <si>
+    <t>29937V971442</t>
+  </si>
+  <si>
+    <t>Stabburet</t>
+  </si>
+  <si>
+    <t>FV109 S1D1 m3493</t>
+  </si>
+  <si>
+    <t>0.29937@971442</t>
+  </si>
+  <si>
+    <t>26581V971445</t>
+  </si>
+  <si>
+    <t>Rolvsøysund bru</t>
+  </si>
+  <si>
+    <t>FV109 S2D1 m4276</t>
+  </si>
+  <si>
+    <t>0.26581@971445</t>
+  </si>
+  <si>
+    <t>47762V971800</t>
+  </si>
+  <si>
+    <t>Fylkeshuset</t>
+  </si>
+  <si>
+    <t>FV109 S2D1 m9007</t>
+  </si>
+  <si>
+    <t>0.4747@971800</t>
+  </si>
+  <si>
+    <t>28001V971448</t>
+  </si>
+  <si>
+    <t>Torsbekkdalen</t>
+  </si>
+  <si>
+    <t>FV109 S2D30 m245</t>
+  </si>
+  <si>
+    <t>0.26699@971448</t>
+  </si>
+  <si>
+    <t>96583V971490</t>
+  </si>
+  <si>
+    <t>Hauge bru</t>
+  </si>
+  <si>
+    <t>FV112 S1D1 m7437</t>
+  </si>
+  <si>
+    <t>fv. 112</t>
+  </si>
+  <si>
+    <t>0.96583@971490</t>
+  </si>
+  <si>
+    <t>56645V971498</t>
+  </si>
+  <si>
+    <t>Greåkerdalen</t>
+  </si>
+  <si>
+    <t>FV114 S1D1 m1744</t>
+  </si>
+  <si>
+    <t>fv. 114</t>
+  </si>
+  <si>
+    <t>0.56636@971498</t>
+  </si>
+  <si>
+    <t>93031V971807</t>
+  </si>
+  <si>
+    <t>Tingvoll</t>
+  </si>
+  <si>
+    <t>FV114 S2D1 m148</t>
+  </si>
+  <si>
+    <t>0.93027@971807</t>
+  </si>
+  <si>
+    <t>92069V971506</t>
+  </si>
+  <si>
+    <t>Skåra</t>
+  </si>
+  <si>
+    <t>FV116 S2D1 m6500</t>
+  </si>
+  <si>
+    <t>fv. 116</t>
+  </si>
+  <si>
+    <t>0.92069@971506</t>
+  </si>
+  <si>
+    <t>61693V971813</t>
+  </si>
+  <si>
+    <t>Ålekilene</t>
+  </si>
+  <si>
+    <t>FV117 S2D1 m5705</t>
+  </si>
+  <si>
+    <t>fv. 117</t>
+  </si>
+  <si>
+    <t>0.61693@971813</t>
+  </si>
+  <si>
+    <t>13990V971815</t>
+  </si>
+  <si>
+    <t>Skjeberg nord</t>
+  </si>
+  <si>
+    <t>FV118 S3D1 m4356</t>
+  </si>
+  <si>
+    <t>fv. 118</t>
+  </si>
+  <si>
+    <t>0.1399@971815</t>
+  </si>
+  <si>
+    <t>16035V971817</t>
+  </si>
+  <si>
+    <t>Sarpsfossen bru</t>
+  </si>
+  <si>
+    <t>FV118 S5D1 m717</t>
+  </si>
+  <si>
+    <t>0.16035@971817</t>
+  </si>
+  <si>
+    <t>82998V971817</t>
+  </si>
+  <si>
+    <t>Tune kirke</t>
+  </si>
+  <si>
+    <t>FV118 S5D1 m3677</t>
+  </si>
+  <si>
+    <t>0.82998@971817</t>
+  </si>
+  <si>
+    <t>06966V971804</t>
+  </si>
+  <si>
+    <t>Rakkestadsvingen øst</t>
+  </si>
+  <si>
+    <t>FV130 S1D1 m674</t>
+  </si>
+  <si>
+    <t>fv. 130</t>
+  </si>
+  <si>
+    <t>0.06952@971804</t>
+  </si>
+  <si>
+    <t>24062V3324514</t>
+  </si>
+  <si>
+    <t>Borge skole</t>
+  </si>
+  <si>
+    <t>FV130 S1D1 m4535</t>
+  </si>
+  <si>
+    <t>0.24062@3324514</t>
+  </si>
+  <si>
+    <t>54674V971471</t>
+  </si>
+  <si>
+    <t>Solberg vest</t>
+  </si>
+  <si>
+    <t>FV130 S2D1 m7623</t>
+  </si>
+  <si>
+    <t>0.54674@971471</t>
+  </si>
+  <si>
+    <t>86688V971471</t>
+  </si>
+  <si>
+    <t>Solberg øst</t>
+  </si>
+  <si>
+    <t>FV130 S2D1 m9076</t>
+  </si>
+  <si>
+    <t>0.86688@971471</t>
+  </si>
+  <si>
+    <t>98723V971842</t>
+  </si>
+  <si>
+    <t>Veumveien</t>
+  </si>
+  <si>
+    <t>FV381 S1D1 m680</t>
+  </si>
+  <si>
+    <t>fv. 381</t>
+  </si>
+  <si>
+    <t>0.98723@971842</t>
+  </si>
+  <si>
+    <t>45854V971841</t>
+  </si>
+  <si>
+    <t>Nordre Veum</t>
+  </si>
+  <si>
+    <t>FV381 S1D1 m7711</t>
+  </si>
+  <si>
+    <t>0.45854@971841</t>
+  </si>
+  <si>
+    <t>07156V971848</t>
+  </si>
+  <si>
+    <t>Grøte bru</t>
+  </si>
+  <si>
+    <t>FV581 S1D1 m707</t>
+  </si>
+  <si>
+    <t>fv. 581</t>
+  </si>
+  <si>
+    <t>0.0716@971848</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>aug</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>okt</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>year_base</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>index_p</t>
+  </si>
+  <si>
+    <t>index_i</t>
+  </si>
+  <si>
+    <t>n_trp</t>
+  </si>
+  <si>
+    <t>standard_error</t>
+  </si>
+  <si>
+    <t>index_type</t>
+  </si>
+  <si>
+    <t>year_from_to</t>
+  </si>
+  <si>
+    <t>area_name</t>
+  </si>
+  <si>
+    <t>month_name_short</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>ci_lower</t>
+  </si>
+  <si>
+    <t>ci_upper</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>2023-2024</t>
+  </si>
+  <si>
+    <t>Nedre Glomma</t>
+  </si>
+  <si>
+    <t>jan-des</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
+    <t>jan-nov</t>
+  </si>
+  <si>
+    <t>chained</t>
+  </si>
+  <si>
+    <t>2023-2025</t>
+  </si>
+  <si>
+    <t>n_eff</t>
+  </si>
+  <si>
+    <t>sd_sample_p</t>
+  </si>
+  <si>
+    <t>standard_error_p</t>
+  </si>
+  <si>
+    <t>index_period</t>
+  </si>
+  <si>
+    <t>month_object</t>
+  </si>
+  <si>
+    <t>month_n</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>2023 - (jan 2024 - des 2024)</t>
+  </si>
+  <si>
+    <t>12_months</t>
+  </si>
+  <si>
+    <t>2023 - (feb 2024 - jan 2025)</t>
+  </si>
+  <si>
+    <t>2023 - (mar 2024 - feb 2025)</t>
+  </si>
+  <si>
+    <t>2023 - (apr 2024 - mar 2025)</t>
+  </si>
+  <si>
+    <t>2023 - (mai 2024 - apr 2025)</t>
+  </si>
+  <si>
+    <t>2023 - (jun 2024 - mai 2025)</t>
+  </si>
+  <si>
+    <t>2023 - (jul 2024 - jun 2025)</t>
+  </si>
+  <si>
+    <t>2023 - (aug 2024 - jul 2025)</t>
+  </si>
+  <si>
+    <t>2023 - (sep 2024 - aug 2025)</t>
+  </si>
+  <si>
+    <t>2023 - (okt 2024 - sep 2025)</t>
+  </si>
+  <si>
+    <t>2023 - (nov 2024 - okt 2025)</t>
+  </si>
+  <si>
+    <t>2023 - (des 2024 - nov 2025)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,13 +691,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -114,7 +743,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -148,6 +777,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -182,9 +812,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -357,146 +988,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>trp_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>road_reference</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>road_category_and_number</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>county_name</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>municipality_name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lat</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>lon</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>road_link_position</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>traffic_type</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>adt</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>year_aadt</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>adt_ref</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ydt_ref_light</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ydt_ref_heavy</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>ydt_light</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>ydt_heavy</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>31043V971805</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Rakkestadsvingen nord</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>RV22 S2D1 m745</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>rv. 22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Fredrikstad</t>
-        </is>
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>59.213757</v>
+        <v>59.213757000000001</v>
       </c>
       <c r="H2">
-        <v>10.983788</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.31054@971805</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>10.983788000000001</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
       </c>
       <c r="K2">
         <v>11330</v>
@@ -520,52 +1103,36 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>71595V971806</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Hvitsten</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>RV22 S2D1 m7580</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>rv. 22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fredrikstad</t>
-        </is>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>59.258374</v>
+        <v>59.258374000000003</v>
       </c>
       <c r="H3">
-        <v>11.059836</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.71596@971806</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>11.059836000000001</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
       </c>
       <c r="K3">
         <v>8400</v>
@@ -589,52 +1156,36 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>88954V971483</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hafslund sør</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>RV22 S3D1 m3692</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>rv. 22</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sarpsborg</t>
-        </is>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>59.273074</v>
+        <v>59.273074000000001</v>
       </c>
       <c r="H4">
-        <v>11.131887</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.88954@971483</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>11.131887000000001</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
       </c>
       <c r="K4">
         <v>10520</v>
@@ -658,52 +1209,36 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>87740V971816</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hafslund øst</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>RV22 S3D1 m4556</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>rv. 22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sarpsborg</t>
-        </is>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>59.272764</v>
+        <v>59.272764000000002</v>
       </c>
       <c r="H5">
-        <v>11.143733</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.87671@971816</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>11.143732999999999</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
       </c>
       <c r="K5">
         <v>18590</v>
@@ -727,52 +1262,36 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05882V3188133</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Simo</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>RV110 S3D1 m2717</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>rv. 110</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Fredrikstad</t>
-        </is>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>59.225663</v>
+        <v>59.225662999999997</v>
       </c>
       <c r="H6">
-        <v>10.916227</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.04838@3188133</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>10.916226999999999</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
       </c>
       <c r="K6">
         <v>23030</v>
@@ -796,52 +1315,36 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>61523V971803</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>St. Hansfjellet</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>RV110 S3D1 m4024</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>rv. 110</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Fredrikstad</t>
-        </is>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>59.219044</v>
+        <v>59.219043999999997</v>
       </c>
       <c r="H7">
-        <v>10.934753</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.61523@971803</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>10.934753000000001</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
       </c>
       <c r="K7">
         <v>19080</v>
@@ -865,52 +1368,36 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>29444V971469</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Fredrikstad bru vest</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>RV110 S3D1 m5815</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>rv. 110</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Fredrikstad</t>
-        </is>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
       </c>
       <c r="G8">
-        <v>59.21184</v>
+        <v>59.211840000000002</v>
       </c>
       <c r="H8">
         <v>10.955489</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.29444@971469</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
       </c>
       <c r="K8">
         <v>24630</v>
@@ -934,52 +1421,36 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08132V1984223</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Værstebrua</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FV108 S1D1 m1071</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>fv. 108</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Fredrikstad</t>
-        </is>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
       </c>
       <c r="G9">
-        <v>59.215639</v>
+        <v>59.215639000000003</v>
       </c>
       <c r="H9">
         <v>10.926776</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.08132@1984223</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
       </c>
       <c r="K9">
         <v>10970</v>
@@ -1003,52 +1474,36 @@
         <v>910</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>82913V971429</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Kråkerøy bru</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FV108 S1D90 m97</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>fv. 108</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Fredrikstad</t>
-        </is>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
       </c>
       <c r="G10">
-        <v>59.207855</v>
+        <v>59.207855000000002</v>
       </c>
       <c r="H10">
         <v>10.93777</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.85074@971429</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
       </c>
       <c r="K10">
         <v>12190</v>
@@ -1072,52 +1527,36 @@
         <v>630</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>69356V971439</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Glemmen</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FV109 S1D1 m1954</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>fv. 109</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Fredrikstad</t>
-        </is>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
       </c>
       <c r="G11">
-        <v>59.22961</v>
+        <v>59.229610000000001</v>
       </c>
       <c r="H11">
-        <v>10.958013</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.69356@971439</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>10.958012999999999</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
       </c>
       <c r="K11">
         <v>22980</v>
@@ -1141,52 +1580,36 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>29937V971442</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Stabburet</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>FV109 S1D1 m3493</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>fv. 109</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Fredrikstad</t>
-        </is>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
       </c>
       <c r="G12">
-        <v>59.241113</v>
+        <v>59.241112999999999</v>
       </c>
       <c r="H12">
         <v>10.974841</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.29937@971442</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
       </c>
       <c r="K12">
         <v>23160</v>
@@ -1210,52 +1633,36 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>26581V971445</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Rolvsøysund bru</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>FV109 S2D1 m4276</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>fv. 109</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sarpsborg</t>
-        </is>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
       </c>
       <c r="G13">
-        <v>59.268559</v>
+        <v>59.268559000000003</v>
       </c>
       <c r="H13">
         <v>11.031226</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.26581@971445</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" t="s">
+        <v>24</v>
       </c>
       <c r="K13">
         <v>14920</v>
@@ -1279,36 +1686,24 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>47762V971800</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Fylkeshuset</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FV109 S2D1 m9007</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>fv. 109</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sarpsborg</t>
-        </is>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
       </c>
       <c r="G14">
         <v>59.272582</v>
@@ -1316,15 +1711,11 @@
       <c r="H14">
         <v>11.105611</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.4747@971800</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+      <c r="I14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
       </c>
       <c r="K14">
         <v>6230</v>
@@ -1348,36 +1739,24 @@
         <v>670</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>28001V971448</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Torsbekkdalen</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>FV109 S2D30 m245</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>fv. 109</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sarpsborg</t>
-        </is>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
       </c>
       <c r="G15">
         <v>59.277155</v>
@@ -1385,15 +1764,11 @@
       <c r="H15">
         <v>11.095297</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.26699@971448</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
       </c>
       <c r="K15">
         <v>8080</v>
@@ -1417,52 +1792,36 @@
         <v>560</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>96583V971490</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Hauge bru</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>FV112 S1D1 m7437</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>fv. 112</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Fredrikstad</t>
-        </is>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
       </c>
       <c r="G16">
-        <v>59.322237</v>
+        <v>59.322237000000001</v>
       </c>
       <c r="H16">
         <v>10.957967</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.96583@971490</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+      <c r="I16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
       </c>
       <c r="K16">
         <v>3910</v>
@@ -1486,52 +1845,36 @@
         <v>780</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>56645V971498</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Greåkerdalen</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>FV114 S1D1 m1744</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>fv. 114</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sarpsborg</t>
-        </is>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
       </c>
       <c r="G17">
-        <v>59.279082</v>
+        <v>59.279082000000002</v>
       </c>
       <c r="H17">
         <v>11.046923</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.56636@971498</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+      <c r="I17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
       </c>
       <c r="K17">
         <v>5190</v>
@@ -1555,52 +1898,36 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>93031V971807</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Tingvoll</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FV114 S2D1 m148</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>fv. 114</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Sarpsborg</t>
-        </is>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
       </c>
       <c r="G18">
-        <v>59.297394</v>
+        <v>59.297393999999997</v>
       </c>
       <c r="H18">
-        <v>11.074141</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0.93027@971807</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>11.074140999999999</v>
+      </c>
+      <c r="I18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
       </c>
       <c r="K18">
         <v>2870</v>
@@ -1624,52 +1951,36 @@
         <v>380</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>92069V971506</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Skåra</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FV116 S2D1 m6500</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>fv. 116</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Fredrikstad</t>
-        </is>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
       </c>
       <c r="G19">
-        <v>59.247247</v>
+        <v>59.247247000000002</v>
       </c>
       <c r="H19">
         <v>10.8932</v>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0.92069@971506</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+      <c r="I19" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
       </c>
       <c r="K19">
         <v>5660</v>
@@ -1693,52 +2004,36 @@
         <v>530</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>61693V971813</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Ålekilene</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>FV117 S2D1 m5705</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>fv. 117</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Fredrikstad</t>
-        </is>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
       </c>
       <c r="G20">
-        <v>59.209036</v>
+        <v>59.209035999999998</v>
       </c>
       <c r="H20">
-        <v>10.888946</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.61693@971813</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>10.888946000000001</v>
+      </c>
+      <c r="I20" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" t="s">
+        <v>24</v>
       </c>
       <c r="K20">
         <v>8120</v>
@@ -1762,52 +2057,36 @@
         <v>550</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>13990V971815</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Skjeberg nord</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>FV118 S3D1 m4356</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>fv. 118</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sarpsborg</t>
-        </is>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
       </c>
       <c r="G21">
         <v>59.213293</v>
       </c>
       <c r="H21">
-        <v>11.189307</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.1399@971815</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>11.189306999999999</v>
+      </c>
+      <c r="I21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
       </c>
       <c r="K21">
         <v>5470</v>
@@ -1831,52 +2110,36 @@
         <v>370</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>16035V971817</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Sarpsfossen bru</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>FV118 S5D1 m717</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>fv. 118</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sarpsborg</t>
-        </is>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
       </c>
       <c r="G22">
-        <v>59.279788</v>
+        <v>59.279788000000003</v>
       </c>
       <c r="H22">
         <v>11.126583</v>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.16035@971817</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+      <c r="I22" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
       </c>
       <c r="K22">
         <v>17710</v>
@@ -1900,52 +2163,36 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>82998V971817</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Tune kirke</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>FV118 S5D1 m3677</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>fv. 118</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sarpsborg</t>
-        </is>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
       </c>
       <c r="G23">
-        <v>59.292542</v>
+        <v>59.292541999999997</v>
       </c>
       <c r="H23">
-        <v>11.08388</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.82998@971817</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>11.083880000000001</v>
+      </c>
+      <c r="I23" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
       </c>
       <c r="K23">
         <v>12720</v>
@@ -1969,52 +2216,36 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>06966V971804</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Rakkestadsvingen øst</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>FV130 S1D1 m674</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>fv. 130</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Fredrikstad</t>
-        </is>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
       </c>
       <c r="G24">
-        <v>59.208585</v>
+        <v>59.208584999999999</v>
       </c>
       <c r="H24">
-        <v>10.989743</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0.06952@971804</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>10.989743000000001</v>
+      </c>
+      <c r="I24" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
       </c>
       <c r="K24">
         <v>10720</v>
@@ -2038,52 +2269,36 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>24062V3324514</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Borge skole</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>FV130 S1D1 m4535</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>fv. 130</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Fredrikstad</t>
-        </is>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
       </c>
       <c r="G25">
-        <v>59.225802</v>
+        <v>59.225802000000002</v>
       </c>
       <c r="H25">
         <v>11.045721</v>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.24062@3324514</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+      <c r="I25" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" t="s">
+        <v>24</v>
       </c>
       <c r="K25">
         <v>9640</v>
@@ -2107,52 +2322,36 @@
         <v>880</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>54674V971471</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Solberg vest</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>FV130 S2D1 m7623</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>fv. 130</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Sarpsborg</t>
-        </is>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
       </c>
       <c r="G26">
-        <v>59.209317</v>
+        <v>59.209316999999999</v>
       </c>
       <c r="H26">
-        <v>11.159726</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.54674@971471</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>11.159725999999999</v>
+      </c>
+      <c r="I26" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" t="s">
+        <v>24</v>
       </c>
       <c r="K26">
         <v>6580</v>
@@ -2176,52 +2375,36 @@
         <v>680</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>86688V971471</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Solberg øst</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>FV130 S2D1 m9076</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>fv. 130</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sarpsborg</t>
-        </is>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
       </c>
       <c r="G27">
-        <v>59.215721</v>
+        <v>59.215721000000002</v>
       </c>
       <c r="H27">
         <v>11.180446</v>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.86688@971471</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+      <c r="I27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J27" t="s">
+        <v>24</v>
       </c>
       <c r="K27">
         <v>5350</v>
@@ -2245,52 +2428,36 @@
         <v>510</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>98723V971842</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Veumveien</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>FV381 S1D1 m680</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>fv. 381</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Fredrikstad</t>
-        </is>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
       </c>
       <c r="G28">
-        <v>59.224745</v>
+        <v>59.224744999999999</v>
       </c>
       <c r="H28">
         <v>10.929511</v>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0.98723@971842</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+      <c r="I28" t="s">
+        <v>139</v>
+      </c>
+      <c r="J28" t="s">
+        <v>24</v>
       </c>
       <c r="K28">
         <v>6180</v>
@@ -2314,52 +2481,36 @@
         <v>370</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>45854V971841</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Nordre Veum</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>FV381 S1D1 m7711</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>fv. 381</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Fredrikstad</t>
-        </is>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
       </c>
       <c r="G29">
         <v>59.282975</v>
       </c>
       <c r="H29">
-        <v>10.939785</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0.45854@971841</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>10.939785000000001</v>
+      </c>
+      <c r="I29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29" t="s">
+        <v>24</v>
       </c>
       <c r="K29">
         <v>2260</v>
@@ -2383,36 +2534,24 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>07156V971848</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Grøte bru</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>FV581 S1D1 m707</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>fv. 581</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Østfold</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sarpsborg</t>
-        </is>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
       </c>
       <c r="G30">
         <v>59.277749</v>
@@ -2420,15 +2559,11 @@
       <c r="H30">
         <v>11.136839</v>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.0716@971848</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+      <c r="I30" t="s">
+        <v>148</v>
+      </c>
+      <c r="J30" t="s">
+        <v>24</v>
       </c>
       <c r="K30">
         <v>6670</v>
@@ -2458,116 +2593,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>trp_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>road_category_and_number</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>jan</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>feb</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mar</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>apr</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>mai</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>jun</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>jul</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>aug</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>sep</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>okt</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>nov</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>des</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>24062V3324514</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Borge skole</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>fv. 130</t>
-        </is>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
       </c>
       <c r="D2">
         <v>2024</v>
       </c>
       <c r="E2">
-        <v>-8.869999999999999</v>
+        <v>-8.8699999999999992</v>
       </c>
       <c r="F2">
         <v>-3.3</v>
@@ -2603,21 +2700,15 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>24062V3324514</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Borge skole</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>fv. 130</t>
-        </is>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
       </c>
       <c r="D3">
         <v>2025</v>
@@ -2652,22 +2743,19 @@
       <c r="N3">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>29444V971469</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fredrikstad bru vest</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>rv. 110</t>
-        </is>
+      <c r="O3">
+        <v>-1.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
       </c>
       <c r="D4">
         <v>2024</v>
@@ -2697,7 +2785,7 @@
         <v>-3.32</v>
       </c>
       <c r="M4">
-        <v>-4.6</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -2709,21 +2797,15 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>29444V971469</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fredrikstad bru vest</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>rv. 110</t>
-        </is>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
       </c>
       <c r="D5">
         <v>2025</v>
@@ -2758,22 +2840,19 @@
       <c r="N5">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>47762V971800</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fylkeshuset</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>fv. 109</t>
-        </is>
+      <c r="O5">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
       </c>
       <c r="D6">
         <v>2024</v>
@@ -2788,13 +2867,13 @@
         <v>-13.09</v>
       </c>
       <c r="H6">
-        <v>8.109999999999999</v>
+        <v>8.11</v>
       </c>
       <c r="I6">
         <v>13.72</v>
       </c>
       <c r="K6">
-        <v>-4.44</v>
+        <v>-4.4400000000000004</v>
       </c>
       <c r="L6">
         <v>-1.9</v>
@@ -2806,21 +2885,15 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>47762V971800</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Fylkeshuset</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>fv. 109</t>
-        </is>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
       </c>
       <c r="D7">
         <v>2025</v>
@@ -2840,22 +2913,19 @@
       <c r="M7">
         <v>3.11</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>69356V971439</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Glemmen</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>fv. 109</t>
-        </is>
+      <c r="O7">
+        <v>-1.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
       </c>
       <c r="D8">
         <v>2024</v>
@@ -2897,21 +2967,15 @@
         <v>-3.67</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>69356V971439</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Glemmen</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>fv. 109</t>
-        </is>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
       </c>
       <c r="D9">
         <v>2025</v>
@@ -2920,7 +2984,7 @@
         <v>-2.66</v>
       </c>
       <c r="F9">
-        <v>-5.1</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="G9">
         <v>3.97</v>
@@ -2946,22 +3010,19 @@
       <c r="N9">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>07156V971848</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Grøte bru</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>fv. 581</t>
-        </is>
+      <c r="O9">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
       </c>
       <c r="D10">
         <v>2024</v>
@@ -2976,10 +3037,10 @@
         <v>-7.44</v>
       </c>
       <c r="H10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I10">
-        <v>-8.699999999999999</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="L10">
         <v>-5.13</v>
@@ -2991,27 +3052,21 @@
         <v>-4.43</v>
       </c>
       <c r="O10">
-        <v>-4.61</v>
+        <v>-4.6100000000000003</v>
       </c>
       <c r="P10">
-        <v>-2.45</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>07156V971848</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Grøte bru</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>fv. 581</t>
-        </is>
+        <v>-2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
       </c>
       <c r="D11">
         <v>2025</v>
@@ -3026,7 +3081,7 @@
         <v>4.79</v>
       </c>
       <c r="H11">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I11">
         <v>10.09</v>
@@ -3038,7 +3093,7 @@
         <v>7.58</v>
       </c>
       <c r="L11">
-        <v>4.86</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="M11">
         <v>5.98</v>
@@ -3046,22 +3101,19 @@
       <c r="N11">
         <v>5.51</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>88954V971483</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Hafslund sør</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>rv. 22</t>
-        </is>
+      <c r="O11">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
       </c>
       <c r="D12">
         <v>2024</v>
@@ -3070,7 +3122,7 @@
         <v>-1.21</v>
       </c>
       <c r="F12">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G12">
         <v>-5.45</v>
@@ -3088,10 +3140,10 @@
         <v>-9.18</v>
       </c>
       <c r="L12">
-        <v>-9.210000000000001</v>
+        <v>-9.2100000000000009</v>
       </c>
       <c r="M12">
-        <v>-9.130000000000001</v>
+        <v>-9.1300000000000008</v>
       </c>
       <c r="N12">
         <v>-7.04</v>
@@ -3103,21 +3155,15 @@
         <v>-6.61</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>88954V971483</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Hafslund sør</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>rv. 22</t>
-        </is>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
       </c>
       <c r="D13">
         <v>2025</v>
@@ -3129,7 +3175,7 @@
         <v>-6.38</v>
       </c>
       <c r="G13">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H13">
         <v>-1.22</v>
@@ -3152,31 +3198,28 @@
       <c r="N13">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>87740V971816</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Hafslund øst</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>rv. 22</t>
-        </is>
+      <c r="O13">
+        <v>-1.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
       </c>
       <c r="D14">
         <v>2024</v>
       </c>
       <c r="E14">
-        <v>-8.619999999999999</v>
+        <v>-8.6199999999999992</v>
       </c>
       <c r="F14">
-        <v>-5.06</v>
+        <v>-5.0599999999999996</v>
       </c>
       <c r="G14">
         <v>-10.76</v>
@@ -3209,41 +3252,29 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>87740V971816</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Hafslund øst</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>rv. 22</t>
-        </is>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
       </c>
       <c r="D15">
         <v>2025</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>96583V971490</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Hauge bru</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>fv. 112</t>
-        </is>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
       </c>
       <c r="D16">
         <v>2024</v>
@@ -3261,7 +3292,7 @@
         <v>12.6</v>
       </c>
       <c r="I16">
-        <v>-1.16</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="J16">
         <v>-3.07</v>
@@ -3285,21 +3316,15 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>96583V971490</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Hauge bru</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>fv. 112</t>
-        </is>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
       </c>
       <c r="D17">
         <v>2025</v>
@@ -3331,22 +3356,19 @@
       <c r="N17">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>71595V971806</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Hvitsten</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>rv. 22</t>
-        </is>
+      <c r="O17">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
       </c>
       <c r="D18">
         <v>2024</v>
@@ -3385,24 +3407,18 @@
         <v>-3.09</v>
       </c>
       <c r="P18">
-        <v>-4.15</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>71595V971806</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Hvitsten</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>rv. 22</t>
-        </is>
+        <v>-4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
       </c>
       <c r="D19">
         <v>2025</v>
@@ -3417,7 +3433,7 @@
         <v>4.38</v>
       </c>
       <c r="H19">
-        <v>8.630000000000001</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="I19">
         <v>6.06</v>
@@ -3437,28 +3453,25 @@
       <c r="N19">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>82913V971429</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Kråkerøy bru</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>fv. 108</t>
-        </is>
+      <c r="O19">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
       </c>
       <c r="D20">
         <v>2024</v>
       </c>
       <c r="E20">
-        <v>4.36</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="F20">
         <v>8.09</v>
@@ -3467,7 +3480,7 @@
         <v>-0.87</v>
       </c>
       <c r="H20">
-        <v>9.210000000000001</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="I20">
         <v>8.26</v>
@@ -3476,7 +3489,7 @@
         <v>3.65</v>
       </c>
       <c r="K20">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L20">
         <v>-6.58</v>
@@ -3485,30 +3498,24 @@
         <v>-6.17</v>
       </c>
       <c r="N20">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O20">
         <v>2.9</v>
       </c>
       <c r="P20">
-        <v>8.789999999999999</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>82913V971429</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Kråkerøy bru</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>fv. 108</t>
-        </is>
+        <v>8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
       </c>
       <c r="D21">
         <v>2025</v>
@@ -3523,7 +3530,7 @@
         <v>13.45</v>
       </c>
       <c r="H21">
-        <v>8.470000000000001</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="I21">
         <v>7.56</v>
@@ -3535,33 +3542,30 @@
         <v>10.79</v>
       </c>
       <c r="M21">
-        <v>8.470000000000001</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="N21">
         <v>12.73</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>45854V971841</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Nordre Veum</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>fv. 381</t>
-        </is>
+      <c r="O21">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
       </c>
       <c r="D22">
         <v>2024</v>
       </c>
       <c r="E22">
-        <v>-17.94</v>
+        <v>-17.940000000000001</v>
       </c>
       <c r="F22">
         <v>-11.45</v>
@@ -3579,7 +3583,7 @@
         <v>-11.03</v>
       </c>
       <c r="K22">
-        <v>-9.039999999999999</v>
+        <v>-9.0399999999999991</v>
       </c>
       <c r="L22">
         <v>-10.93</v>
@@ -3594,21 +3598,15 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>45854V971841</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Nordre Veum</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>fv. 381</t>
-        </is>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
       </c>
       <c r="D23">
         <v>2025</v>
@@ -3637,22 +3635,19 @@
       <c r="N23">
         <v>-2.52</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>31043V971805</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Rakkestadsvingen nord</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>rv. 22</t>
-        </is>
+      <c r="O23">
+        <v>-3.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
       </c>
       <c r="D24">
         <v>2024</v>
@@ -3667,7 +3662,7 @@
         <v>1.76</v>
       </c>
       <c r="J24">
-        <v>-4.36</v>
+        <v>-4.3600000000000003</v>
       </c>
       <c r="K24">
         <v>-2.5</v>
@@ -3688,21 +3683,15 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>31043V971805</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Rakkestadsvingen nord</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>rv. 22</t>
-        </is>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
       </c>
       <c r="D25">
         <v>2025</v>
@@ -3732,27 +3721,24 @@
         <v>1.86</v>
       </c>
       <c r="M25">
-        <v>-2.07</v>
+        <v>-2.0699999999999998</v>
       </c>
       <c r="N25">
         <v>-3.08</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>06966V971804</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Rakkestadsvingen øst</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>fv. 130</t>
-        </is>
+      <c r="O25">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
       </c>
       <c r="D26">
         <v>2024</v>
@@ -3788,27 +3774,21 @@
         <v>-3.51</v>
       </c>
       <c r="O26">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P26">
         <v>4.28</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>06966V971804</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Rakkestadsvingen øst</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>fv. 130</t>
-        </is>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
       </c>
       <c r="D27">
         <v>2025</v>
@@ -3823,7 +3803,7 @@
         <v>9.93</v>
       </c>
       <c r="H27">
-        <v>4.81</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="I27">
         <v>3.62</v>
@@ -3832,33 +3812,30 @@
         <v>4.71</v>
       </c>
       <c r="K27">
-        <v>8.279999999999999</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="L27">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="M27">
         <v>6.64</v>
       </c>
       <c r="N27">
-        <v>8.869999999999999</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>26581V971445</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Rolvsøysund bru</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>fv. 109</t>
-        </is>
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="O27">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
       </c>
       <c r="D28">
         <v>2024</v>
@@ -3894,27 +3871,21 @@
         <v>-2.41</v>
       </c>
       <c r="O28">
-        <v>-2.01</v>
+        <v>-2.0099999999999998</v>
       </c>
       <c r="P28">
-        <v>-2.22</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>26581V971445</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Rolvsøysund bru</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>fv. 109</t>
-        </is>
+        <v>-2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
       </c>
       <c r="D29">
         <v>2025</v>
@@ -3950,21 +3921,15 @@
         <v>-0.49</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>16035V971817</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Sarpsfossen bru</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>fv. 118</t>
-        </is>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
       </c>
       <c r="D30">
         <v>2024</v>
@@ -4000,27 +3965,21 @@
         <v>-7.83</v>
       </c>
       <c r="O30">
-        <v>-8.109999999999999</v>
+        <v>-8.11</v>
       </c>
       <c r="P30">
         <v>-6.35</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>16035V971817</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Sarpsfossen bru</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>fv. 118</t>
-        </is>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
       </c>
       <c r="D31">
         <v>2025</v>
@@ -4050,27 +4009,24 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N31">
         <v>1.64</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>05882V3188133</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Simo</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>rv. 110</t>
-        </is>
+      <c r="O31">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
       </c>
       <c r="D32">
         <v>2024</v>
@@ -4106,27 +4062,21 @@
         <v>0.54</v>
       </c>
       <c r="O32">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="P32">
         <v>0.87</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>05882V3188133</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Simo</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>rv. 110</t>
-        </is>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
       </c>
       <c r="D33">
         <v>2025</v>
@@ -4147,7 +4097,7 @@
         <v>1.17</v>
       </c>
       <c r="J33">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="K33">
         <v>5.94</v>
@@ -4156,27 +4106,24 @@
         <v>2.04</v>
       </c>
       <c r="M33">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="N33">
         <v>2.66</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>13990V971815</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Skjeberg nord</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>fv. 118</t>
-        </is>
+      <c r="O33">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
       </c>
       <c r="D34">
         <v>2024</v>
@@ -4185,7 +4132,7 @@
         <v>-0.54</v>
       </c>
       <c r="F34">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G34">
         <v>3.57</v>
@@ -4200,13 +4147,13 @@
         <v>0.83</v>
       </c>
       <c r="K34">
-        <v>10.22</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="L34">
         <v>9.66</v>
       </c>
       <c r="N34">
-        <v>10.12</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="O34">
         <v>6.73</v>
@@ -4215,33 +4162,27 @@
         <v>11.93</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>13990V971815</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Skjeberg nord</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>fv. 118</t>
-        </is>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
       </c>
       <c r="D35">
         <v>2025</v>
       </c>
       <c r="E35">
-        <v>9.109999999999999</v>
+        <v>9.11</v>
       </c>
       <c r="F35">
         <v>6.79</v>
       </c>
       <c r="G35">
-        <v>8.779999999999999</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="H35">
         <v>2.81</v>
@@ -4253,7 +4194,7 @@
         <v>1.44</v>
       </c>
       <c r="K35">
-        <v>8.640000000000001</v>
+        <v>8.64</v>
       </c>
       <c r="L35">
         <v>2.23</v>
@@ -4261,28 +4202,25 @@
       <c r="N35">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>92069V971506</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Skåra</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>fv. 116</t>
-        </is>
+      <c r="O35">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
+        <v>98</v>
       </c>
       <c r="D36">
         <v>2024</v>
       </c>
       <c r="E36">
-        <v>-2.07</v>
+        <v>-2.0699999999999998</v>
       </c>
       <c r="F36">
         <v>3.14</v>
@@ -4312,27 +4250,21 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>92069V971506</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Skåra</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>fv. 116</t>
-        </is>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>98</v>
       </c>
       <c r="D37">
         <v>2025</v>
       </c>
       <c r="E37">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="F37">
         <v>-1.22</v>
@@ -4350,79 +4282,64 @@
         <v>3.83</v>
       </c>
       <c r="K37">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="L37">
         <v>1.57</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>54674V971471</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Solberg vest</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>fv. 130</t>
-        </is>
+      <c r="O37">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" t="s">
+        <v>121</v>
       </c>
       <c r="D38">
         <v>2024</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>54674V971471</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Solberg vest</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>fv. 130</t>
-        </is>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
       </c>
       <c r="D39">
         <v>2025</v>
       </c>
       <c r="K39">
-        <v>9.720000000000001</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="L39">
         <v>5.72</v>
       </c>
       <c r="M39">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="N39">
         <v>4.99</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>86688V971471</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Solberg øst</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>fv. 130</t>
-        </is>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>121</v>
       </c>
       <c r="D40">
         <v>2024</v>
@@ -4431,13 +4348,13 @@
         <v>5.64</v>
       </c>
       <c r="F40">
-        <v>8.119999999999999</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="G40">
         <v>6.62</v>
       </c>
       <c r="H40">
-        <v>9.369999999999999</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="I40">
         <v>7.43</v>
@@ -4458,33 +4375,27 @@
         <v>0.22</v>
       </c>
       <c r="O40">
-        <v>-0.5600000000000001</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="P40">
         <v>1.57</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>86688V971471</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Solberg øst</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>fv. 130</t>
-        </is>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
       </c>
       <c r="D41">
         <v>2025</v>
       </c>
       <c r="E41">
-        <v>-0.28</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="F41">
         <v>-1.86</v>
@@ -4513,22 +4424,19 @@
       <c r="N41">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>29937V971442</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Stabburet</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>fv. 109</t>
-        </is>
+      <c r="O41">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
       </c>
       <c r="D42">
         <v>2024</v>
@@ -4552,7 +4460,7 @@
         <v>-5.96</v>
       </c>
       <c r="K42">
-        <v>-4.27</v>
+        <v>-4.2699999999999996</v>
       </c>
       <c r="L42">
         <v>-6</v>
@@ -4564,27 +4472,21 @@
         <v>-1.35</v>
       </c>
       <c r="O42">
-        <v>-4.85</v>
+        <v>-4.8499999999999996</v>
       </c>
       <c r="P42">
         <v>-4.41</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>29937V971442</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Stabburet</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>fv. 109</t>
-        </is>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
       </c>
       <c r="D43">
         <v>2025</v>
@@ -4599,7 +4501,7 @@
         <v>2.81</v>
       </c>
       <c r="H43">
-        <v>-4.4</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="I43">
         <v>1.05</v>
@@ -4619,22 +4521,19 @@
       <c r="N43">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>93031V971807</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Tingvoll</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>fv. 114</t>
-        </is>
+      <c r="O43">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
       </c>
       <c r="D44">
         <v>2024</v>
@@ -4643,7 +4542,7 @@
         <v>-13.07</v>
       </c>
       <c r="F44">
-        <v>-9.460000000000001</v>
+        <v>-9.4600000000000009</v>
       </c>
       <c r="G44">
         <v>-10.3</v>
@@ -4667,27 +4566,21 @@
         <v>-6.68</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>93031V971807</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Tingvoll</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>fv. 114</t>
-        </is>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
       </c>
       <c r="D45">
         <v>2025</v>
       </c>
       <c r="E45">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F45">
         <v>-1.44</v>
@@ -4708,7 +4601,7 @@
         <v>5.01</v>
       </c>
       <c r="L45">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="M45">
         <v>6.95</v>
@@ -4716,22 +4609,19 @@
       <c r="N45">
         <v>5.54</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>28001V971448</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Torsbekkdalen</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>fv. 109</t>
-        </is>
+      <c r="O45">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
       </c>
       <c r="D46">
         <v>2024</v>
@@ -4746,13 +4636,13 @@
         <v>6.7</v>
       </c>
       <c r="H46">
-        <v>18.69</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="I46">
         <v>52.17</v>
       </c>
       <c r="J46">
-        <v>39.91</v>
+        <v>39.909999999999997</v>
       </c>
       <c r="K46">
         <v>9.58</v>
@@ -4773,21 +4663,15 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>28001V971448</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Torsbekkdalen</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>fv. 109</t>
-        </is>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
       </c>
       <c r="D47">
         <v>2025</v>
@@ -4808,7 +4692,7 @@
         <v>-10.44</v>
       </c>
       <c r="J47">
-        <v>-9.640000000000001</v>
+        <v>-9.64</v>
       </c>
       <c r="K47">
         <v>-6.59</v>
@@ -4822,22 +4706,19 @@
       <c r="N47">
         <v>1.69</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>82998V971817</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Tune kirke</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>fv. 118</t>
-        </is>
+      <c r="O47">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
       </c>
       <c r="D48">
         <v>2024</v>
@@ -4852,7 +4733,7 @@
         <v>-10.41</v>
       </c>
       <c r="H48">
-        <v>-0.29</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="I48">
         <v>-13.03</v>
@@ -4864,7 +4745,7 @@
         <v>-7.98</v>
       </c>
       <c r="L48">
-        <v>-9.699999999999999</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="M48">
         <v>-7.98</v>
@@ -4873,47 +4754,35 @@
         <v>-6.68</v>
       </c>
       <c r="O48">
-        <v>-8.220000000000001</v>
+        <v>-8.2200000000000006</v>
       </c>
       <c r="P48">
         <v>-5.26</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>82998V971817</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Tune kirke</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>fv. 118</t>
-        </is>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>98723V971842</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Veumveien</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>fv. 381</t>
-        </is>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" t="s">
+        <v>138</v>
       </c>
       <c r="D50">
         <v>2024</v>
@@ -4937,7 +4806,7 @@
         <v>-11.03</v>
       </c>
       <c r="K50">
-        <v>-9.789999999999999</v>
+        <v>-9.7899999999999991</v>
       </c>
       <c r="L50">
         <v>-5.31</v>
@@ -4952,24 +4821,18 @@
         <v>-8.1</v>
       </c>
       <c r="P50">
-        <v>-5.06</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>98723V971842</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Veumveien</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>fv. 381</t>
-        </is>
+        <v>-5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" t="s">
+        <v>138</v>
       </c>
       <c r="D51">
         <v>2025</v>
@@ -4981,7 +4844,7 @@
         <v>-7.24</v>
       </c>
       <c r="G51">
-        <v>-0.14</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="H51">
         <v>-4.91</v>
@@ -5004,22 +4867,19 @@
       <c r="N51">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>08132V1984223</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Værstebrua</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>fv. 108</t>
-        </is>
+      <c r="O51">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
       </c>
       <c r="D52">
         <v>2024</v>
@@ -5046,13 +4906,13 @@
         <v>-11.65</v>
       </c>
       <c r="L52">
-        <v>-8.220000000000001</v>
+        <v>-8.2200000000000006</v>
       </c>
       <c r="M52">
         <v>-7.09</v>
       </c>
       <c r="N52">
-        <v>4.61</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="O52">
         <v>12.84</v>
@@ -5061,21 +4921,15 @@
         <v>17.07</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>08132V1984223</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Værstebrua</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>fv. 108</t>
-        </is>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
       </c>
       <c r="D53">
         <v>2025</v>
@@ -5107,22 +4961,19 @@
       <c r="N53">
         <v>17.48</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>61693V971813</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Ålekilene</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>fv. 117</t>
-        </is>
+      <c r="O53">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>103</v>
       </c>
       <c r="D54">
         <v>2024</v>
@@ -5161,21 +5012,15 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>61693V971813</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Ålekilene</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>fv. 117</t>
-        </is>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
       </c>
       <c r="D55">
         <v>2025</v>
@@ -5206,6 +5051,9 @@
       </c>
       <c r="N55">
         <v>2.14</v>
+      </c>
+      <c r="O55">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
@@ -5214,86 +5062,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year_base</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>index_p</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>index_i</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>n_trp</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>standard_error</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>index_type</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>year_from_to</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>area_name</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>month_name_short</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>period</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>ci_lower</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ci_upper</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -5307,38 +5127,28 @@
         <v>-2.1</v>
       </c>
       <c r="E2">
-        <v>0.979</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="F2">
         <v>26</v>
       </c>
       <c r="G2">
-        <v>0.9676465159429686</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Nedre Glomma</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>des</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>jan-des</t>
-        </is>
+        <v>0.96764651594296858</v>
+      </c>
+      <c r="H2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" t="s">
+        <v>178</v>
       </c>
       <c r="M2">
         <v>-4</v>
@@ -5347,7 +5157,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -5355,50 +5165,40 @@
         <v>2025</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1.0204</v>
+        <v>1.0195000000000001</v>
       </c>
       <c r="F3">
         <v>25</v>
       </c>
       <c r="G3">
-        <v>0.9687275452614585</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Nedre Glomma</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>okt</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>jan-okt</t>
-        </is>
+        <v>0.91198202920342375</v>
+      </c>
+      <c r="H3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" t="s">
+        <v>180</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N3">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
@@ -5407,112 +5207,273 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2023</v>
+      </c>
+      <c r="B2">
+        <v>2024</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="E2">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="F2">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>1.001137788558742</v>
+      </c>
+      <c r="H2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M2">
+        <v>-4.3</v>
+      </c>
+      <c r="N2">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2024</v>
+      </c>
+      <c r="B3">
+        <v>2025</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1.0195000000000001</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>0.91198202920342375</v>
+      </c>
+      <c r="H3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3">
+        <v>0.2</v>
+      </c>
+      <c r="N3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2023</v>
+      </c>
+      <c r="B4">
+        <v>2025</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>-0.4</v>
+      </c>
+      <c r="E4">
+        <v>0.99615345</v>
+      </c>
+      <c r="F4">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>1.35494839432035</v>
+      </c>
+      <c r="H4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4">
+        <v>-3.1</v>
+      </c>
+      <c r="N4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index_i</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>index_p</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>n_trp</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>n_eff</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sd_sample_p</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>standard_error_p</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ci_lower</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ci_upper</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>index_period</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>month_object</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>month_n</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>window</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.9769099000174246</v>
+        <v>0.97690990001742462</v>
       </c>
       <c r="B2">
-        <v>-2.309009998257538</v>
+        <v>-2.3090099982575381</v>
       </c>
       <c r="C2">
         <v>18</v>
       </c>
       <c r="D2">
-        <v>14.09584620474367</v>
+        <v>14.095846204743671</v>
       </c>
       <c r="E2">
-        <v>4.148294278743561</v>
+        <v>4.1482942787435606</v>
       </c>
       <c r="F2">
-        <v>1.104902563545127</v>
+        <v>1.1049025635451271</v>
       </c>
       <c r="G2">
-        <v>-4.6</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2023 - (jan 2024 - des 2024)</t>
-        </is>
+      <c r="I2" t="s">
+        <v>190</v>
       </c>
       <c r="J2" s="2">
         <v>45627</v>
@@ -5523,15 +5484,13 @@
       <c r="L2">
         <v>2024</v>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+      <c r="M2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0.9772706776417235</v>
+        <v>0.97727067764172348</v>
       </c>
       <c r="B3">
         <v>-2.272932235827652</v>
@@ -5540,13 +5499,13 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>14.09584620474367</v>
+        <v>14.095846204743671</v>
       </c>
       <c r="E3">
-        <v>4.277606761659089</v>
+        <v>4.2776067616590892</v>
       </c>
       <c r="F3">
-        <v>1.139345079979864</v>
+        <v>1.1393450799798639</v>
       </c>
       <c r="G3">
         <v>-4.7</v>
@@ -5554,10 +5513,8 @@
       <c r="H3">
         <v>0.1</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2023 - (feb 2024 - jan 2025)</t>
-        </is>
+      <c r="I3" t="s">
+        <v>192</v>
       </c>
       <c r="J3" s="2">
         <v>45658</v>
@@ -5568,15 +5525,13 @@
       <c r="L3">
         <v>2025</v>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="M3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>0.9742073689542771</v>
+        <v>0.97420736895427706</v>
       </c>
       <c r="B4">
         <v>-2.579263104572294</v>
@@ -5585,24 +5540,22 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>14.09584620474367</v>
+        <v>14.095846204743671</v>
       </c>
       <c r="E4">
-        <v>4.400763728906393</v>
+        <v>4.4007637289063926</v>
       </c>
       <c r="F4">
         <v>1.17214806831347</v>
       </c>
       <c r="G4">
-        <v>-5.1</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="H4">
         <v>-0.1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2023 - (mar 2024 - feb 2025)</t>
-        </is>
+      <c r="I4" t="s">
+        <v>193</v>
       </c>
       <c r="J4" s="2">
         <v>45689</v>
@@ -5613,15 +5566,13 @@
       <c r="L4">
         <v>2025</v>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="M4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>0.9758540448761737</v>
+        <v>0.97585404487617367</v>
       </c>
       <c r="B5">
         <v>-2.414595512382633</v>
@@ -5630,24 +5581,22 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>13.50816625628462</v>
+        <v>13.508166256284619</v>
       </c>
       <c r="E5">
-        <v>4.385593192977924</v>
+        <v>4.3855931929779244</v>
       </c>
       <c r="F5">
-        <v>1.193246434948995</v>
+        <v>1.1932464349489951</v>
       </c>
       <c r="G5">
-        <v>-4.9</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="H5">
         <v>0.1</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2023 - (apr 2024 - mar 2025)</t>
-        </is>
+      <c r="I5" t="s">
+        <v>194</v>
       </c>
       <c r="J5" s="2">
         <v>45717</v>
@@ -5658,18 +5607,16 @@
       <c r="L5">
         <v>2025</v>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="M5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>0.9741121426333175</v>
+        <v>0.97411214263331747</v>
       </c>
       <c r="B6">
-        <v>-2.588785736668253</v>
+        <v>-2.5887857366682532</v>
       </c>
       <c r="C6">
         <v>18</v>
@@ -5678,7 +5625,7 @@
         <v>14.16474094745808</v>
       </c>
       <c r="E6">
-        <v>4.303083650905337</v>
+        <v>4.3030836509053367</v>
       </c>
       <c r="F6">
         <v>1.143340192030887</v>
@@ -5689,10 +5636,8 @@
       <c r="H6">
         <v>-0.2</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2023 - (mai 2024 - apr 2025)</t>
-        </is>
+      <c r="I6" t="s">
+        <v>195</v>
       </c>
       <c r="J6" s="2">
         <v>45748</v>
@@ -5703,18 +5648,16 @@
       <c r="L6">
         <v>2025</v>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="M6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>0.9758482245074325</v>
+        <v>0.97584822450743247</v>
       </c>
       <c r="B7">
-        <v>-2.415177549256753</v>
+        <v>-2.4151775492567529</v>
       </c>
       <c r="C7">
         <v>18</v>
@@ -5723,7 +5666,7 @@
         <v>14.16474094745808</v>
       </c>
       <c r="E7">
-        <v>4.265232932063845</v>
+        <v>4.2652329320638449</v>
       </c>
       <c r="F7">
         <v>1.133283160455488</v>
@@ -5732,12 +5675,10 @@
         <v>-4.8</v>
       </c>
       <c r="H7">
-        <v>-0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2023 - (jun 2024 - mai 2025)</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>196</v>
       </c>
       <c r="J7" s="2">
         <v>45778</v>
@@ -5748,15 +5689,13 @@
       <c r="L7">
         <v>2025</v>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="M7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>0.9832668844671817</v>
+        <v>0.98326688446718169</v>
       </c>
       <c r="B8">
         <v>-1.673311553281831</v>
@@ -5765,13 +5704,13 @@
         <v>17</v>
       </c>
       <c r="D8">
-        <v>13.19685171356456</v>
+        <v>13.196851713564561</v>
       </c>
       <c r="E8">
-        <v>4.321957481196854</v>
+        <v>4.3219574811968542</v>
       </c>
       <c r="F8">
-        <v>1.189721531952277</v>
+        <v>1.1897215319522769</v>
       </c>
       <c r="G8">
         <v>-4.2</v>
@@ -5779,10 +5718,8 @@
       <c r="H8">
         <v>0.8</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2023 - (jul 2024 - jun 2025)</t>
-        </is>
+      <c r="I8" t="s">
+        <v>197</v>
       </c>
       <c r="J8" s="2">
         <v>45809</v>
@@ -5793,18 +5730,16 @@
       <c r="L8">
         <v>2025</v>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="M8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>0.9930009475140237</v>
+        <v>0.99300094751402368</v>
       </c>
       <c r="B9">
-        <v>-0.699905248597632</v>
+        <v>-0.69990524859763203</v>
       </c>
       <c r="C9">
         <v>19</v>
@@ -5813,10 +5748,10 @@
         <v>14.72392901435027</v>
       </c>
       <c r="E9">
-        <v>5.026629911178414</v>
+        <v>5.0266299111784143</v>
       </c>
       <c r="F9">
-        <v>1.309981171979325</v>
+        <v>1.3099811719793251</v>
       </c>
       <c r="G9">
         <v>-3.5</v>
@@ -5824,10 +5759,8 @@
       <c r="H9">
         <v>2.1</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2023 - (aug 2024 - jul 2025)</t>
-        </is>
+      <c r="I9" t="s">
+        <v>198</v>
       </c>
       <c r="J9" s="2">
         <v>45839</v>
@@ -5838,18 +5771,16 @@
       <c r="L9">
         <v>2025</v>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="M9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>0.993549527384879</v>
+        <v>0.99354952738487901</v>
       </c>
       <c r="B10">
-        <v>-0.6450472615120995</v>
+        <v>-0.64504726151209946</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -5858,10 +5789,10 @@
         <v>14.72392901435027</v>
       </c>
       <c r="E10">
-        <v>5.054406644903425</v>
+        <v>5.0544066449034251</v>
       </c>
       <c r="F10">
-        <v>1.317220017655616</v>
+        <v>1.3172200176556159</v>
       </c>
       <c r="G10">
         <v>-3.4</v>
@@ -5869,10 +5800,8 @@
       <c r="H10">
         <v>2.1</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2023 - (sep 2024 - aug 2025)</t>
-        </is>
+      <c r="I10" t="s">
+        <v>199</v>
       </c>
       <c r="J10" s="2">
         <v>45870</v>
@@ -5883,18 +5812,16 @@
       <c r="L10">
         <v>2025</v>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="M10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>0.9991532249526388</v>
+        <v>0.99915322495263881</v>
       </c>
       <c r="B11">
-        <v>-0.08467750473611924</v>
+        <v>-8.4677504736119236E-2</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -5903,7 +5830,7 @@
         <v>15.71971180997949</v>
       </c>
       <c r="E11">
-        <v>5.216467590334918</v>
+        <v>5.2164675903349176</v>
       </c>
       <c r="F11">
         <v>1.315691968381006</v>
@@ -5914,10 +5841,8 @@
       <c r="H11">
         <v>2.7</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2023 - (okt 2024 - sep 2025)</t>
-        </is>
+      <c r="I11" t="s">
+        <v>200</v>
       </c>
       <c r="J11" s="2">
         <v>45901</v>
@@ -5928,18 +5853,16 @@
       <c r="L11">
         <v>2025</v>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="M11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>1.001402751121869</v>
+        <v>1.0014027511218691</v>
       </c>
       <c r="B12">
-        <v>0.1402751121869494</v>
+        <v>0.14027511218694941</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -5948,10 +5871,10 @@
         <v>15.71971180997949</v>
       </c>
       <c r="E12">
-        <v>5.326593606543288</v>
+        <v>5.3265936065432884</v>
       </c>
       <c r="F12">
-        <v>1.343467836346448</v>
+        <v>1.3434678363464481</v>
       </c>
       <c r="G12">
         <v>-2.7</v>
@@ -5959,10 +5882,8 @@
       <c r="H12">
         <v>3</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2023 - (nov 2024 - okt 2025)</t>
-        </is>
+      <c r="I12" t="s">
+        <v>201</v>
       </c>
       <c r="J12" s="2">
         <v>45931</v>
@@ -5973,10 +5894,49 @@
       <c r="L12">
         <v>2025</v>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
+      <c r="M12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1.004100693421716</v>
+      </c>
+      <c r="B13">
+        <v>0.41006934217162622</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>16.1890479828708</v>
+      </c>
+      <c r="E13">
+        <v>5.5256191745789609</v>
+      </c>
+      <c r="F13">
+        <v>1.373315415078439</v>
+      </c>
+      <c r="G13">
+        <v>-2.5</v>
+      </c>
+      <c r="H13">
+        <v>3.3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>202</v>
+      </c>
+      <c r="J13" s="2">
+        <v>45962</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>2025</v>
+      </c>
+      <c r="M13" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data_indexpoints_tidy/tallmateriale_18952.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_18952.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programmering\R\byindeks\data_indexpoints_tidy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17CE747-4C2C-4C43-8497-2F7B835562B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E076C53-AE29-4094-B759-C3223034BE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="38610" windowHeight="20985" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="punkt_adt" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="205">
   <si>
     <t>trp_id</t>
   </si>
@@ -182,7 +182,7 @@
     <t>08132V1984223</t>
   </si>
   <si>
-    <t>Værstebrua</t>
+    <t>Værstebroa</t>
   </si>
   <si>
     <t>FV108 S1D1 m1071</t>
@@ -275,7 +275,7 @@
     <t>Hauge bru</t>
   </si>
   <si>
-    <t>FV112 S1D1 m7437</t>
+    <t>FV112 S1D1 m7436</t>
   </si>
   <si>
     <t>fv. 112</t>
@@ -566,9 +566,6 @@
     <t>2024-2025</t>
   </si>
   <si>
-    <t>jan-nov</t>
-  </si>
-  <si>
     <t>chained</t>
   </si>
   <si>
@@ -633,6 +630,15 @@
   </si>
   <si>
     <t>2023 - (des 2024 - nov 2025)</t>
+  </si>
+  <si>
+    <t>2023 - (jan 2025 - des 2025)</t>
+  </si>
+  <si>
+    <t>2023 - (jan 2024 - des 2025)</t>
+  </si>
+  <si>
+    <t>24_months</t>
   </si>
 </sst>
 </file>
@@ -991,13 +997,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +1054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1082,10 +1086,10 @@
         <v>24</v>
       </c>
       <c r="K2">
-        <v>11330</v>
+        <v>11490</v>
       </c>
       <c r="L2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M2">
         <v>11260</v>
@@ -1097,13 +1101,13 @@
         <v>1970</v>
       </c>
       <c r="P2">
-        <v>12390</v>
+        <v>12620</v>
       </c>
       <c r="Q2">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1135,10 +1139,10 @@
         <v>24</v>
       </c>
       <c r="K3">
-        <v>8400</v>
+        <v>8620</v>
       </c>
       <c r="L3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M3">
         <v>8750</v>
@@ -1150,13 +1154,13 @@
         <v>1730</v>
       </c>
       <c r="P3">
-        <v>9380</v>
+        <v>9590</v>
       </c>
       <c r="Q3">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1188,10 +1192,10 @@
         <v>24</v>
       </c>
       <c r="K4">
-        <v>10520</v>
+        <v>10530</v>
       </c>
       <c r="L4">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M4">
         <v>11300</v>
@@ -1203,13 +1207,13 @@
         <v>1900</v>
       </c>
       <c r="P4">
-        <v>11700</v>
+        <v>11680</v>
       </c>
       <c r="Q4">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1232,7 +1236,7 @@
         <v>59.272764000000002</v>
       </c>
       <c r="H5">
-        <v>11.143732999999999</v>
+        <v>11.14373</v>
       </c>
       <c r="I5" t="s">
         <v>37</v>
@@ -1262,7 +1266,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1294,10 +1298,10 @@
         <v>24</v>
       </c>
       <c r="K6">
-        <v>23030</v>
+        <v>23650</v>
       </c>
       <c r="L6">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M6">
         <v>22930</v>
@@ -1309,13 +1313,13 @@
         <v>2110</v>
       </c>
       <c r="P6">
-        <v>25050</v>
+        <v>25700</v>
       </c>
       <c r="Q6">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1347,10 +1351,10 @@
         <v>24</v>
       </c>
       <c r="K7">
-        <v>19080</v>
+        <v>17910</v>
       </c>
       <c r="L7">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M7">
         <v>17140</v>
@@ -1362,13 +1366,13 @@
         <v>1590</v>
       </c>
       <c r="P7">
-        <v>20770</v>
+        <v>19560</v>
       </c>
       <c r="Q7">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1400,10 +1404,10 @@
         <v>24</v>
       </c>
       <c r="K8">
-        <v>24630</v>
+        <v>24970</v>
       </c>
       <c r="L8">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M8">
         <v>24770</v>
@@ -1415,13 +1419,13 @@
         <v>2540</v>
       </c>
       <c r="P8">
-        <v>27070</v>
+        <v>27420</v>
       </c>
       <c r="Q8">
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1453,10 +1457,10 @@
         <v>24</v>
       </c>
       <c r="K9">
-        <v>10970</v>
+        <v>12610</v>
       </c>
       <c r="L9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M9">
         <v>11260</v>
@@ -1468,13 +1472,13 @@
         <v>910</v>
       </c>
       <c r="P9">
-        <v>12280</v>
+        <v>14050</v>
       </c>
       <c r="Q9">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1494,10 +1498,10 @@
         <v>22</v>
       </c>
       <c r="G10">
-        <v>59.207855000000002</v>
+        <v>59.207853999999998</v>
       </c>
       <c r="H10">
-        <v>10.93777</v>
+        <v>10.937768999999999</v>
       </c>
       <c r="I10" t="s">
         <v>59</v>
@@ -1506,10 +1510,10 @@
         <v>24</v>
       </c>
       <c r="K10">
-        <v>12190</v>
+        <v>13170</v>
       </c>
       <c r="L10">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M10">
         <v>11710</v>
@@ -1521,13 +1525,13 @@
         <v>630</v>
       </c>
       <c r="P10">
-        <v>13440</v>
+        <v>14480</v>
       </c>
       <c r="Q10">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1559,10 +1563,10 @@
         <v>24</v>
       </c>
       <c r="K11">
-        <v>22980</v>
+        <v>23150</v>
       </c>
       <c r="L11">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M11">
         <v>23550</v>
@@ -1574,13 +1578,13 @@
         <v>2140</v>
       </c>
       <c r="P11">
-        <v>25980</v>
+        <v>26180</v>
       </c>
       <c r="Q11">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -1612,10 +1616,10 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>23160</v>
+        <v>23000</v>
       </c>
       <c r="L12">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M12">
         <v>23420</v>
@@ -1627,13 +1631,13 @@
         <v>1980</v>
       </c>
       <c r="P12">
-        <v>26110</v>
+        <v>25880</v>
       </c>
       <c r="Q12">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -1665,10 +1669,10 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>14920</v>
+        <v>14990</v>
       </c>
       <c r="L13">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M13">
         <v>15250</v>
@@ -1680,13 +1684,13 @@
         <v>1620</v>
       </c>
       <c r="P13">
-        <v>16570</v>
+        <v>16640</v>
       </c>
       <c r="Q13">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -1718,10 +1722,10 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>6230</v>
+        <v>6070</v>
       </c>
       <c r="L14">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M14">
         <v>6050</v>
@@ -1733,13 +1737,13 @@
         <v>660</v>
       </c>
       <c r="P14">
-        <v>7190</v>
+        <v>6940</v>
       </c>
       <c r="Q14">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -1771,10 +1775,10 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>8080</v>
+        <v>7690</v>
       </c>
       <c r="L15">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M15">
         <v>7240</v>
@@ -1786,13 +1790,13 @@
         <v>500</v>
       </c>
       <c r="P15">
-        <v>8850</v>
+        <v>8420</v>
       </c>
       <c r="Q15">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -1815,7 +1819,7 @@
         <v>59.322237000000001</v>
       </c>
       <c r="H16">
-        <v>10.957967</v>
+        <v>10.957966000000001</v>
       </c>
       <c r="I16" t="s">
         <v>85</v>
@@ -1824,10 +1828,10 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>3910</v>
+        <v>4000</v>
       </c>
       <c r="L16">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M16">
         <v>3900</v>
@@ -1839,13 +1843,13 @@
         <v>860</v>
       </c>
       <c r="P16">
-        <v>4480</v>
+        <v>4580</v>
       </c>
       <c r="Q16">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -1877,10 +1881,10 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>5190</v>
+        <v>4810</v>
       </c>
       <c r="L17">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M17">
         <v>4350</v>
@@ -1892,13 +1896,13 @@
         <v>240</v>
       </c>
       <c r="P17">
-        <v>5960</v>
+        <v>5510</v>
       </c>
       <c r="Q17">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -1930,10 +1934,10 @@
         <v>24</v>
       </c>
       <c r="K18">
-        <v>2870</v>
+        <v>2970</v>
       </c>
       <c r="L18">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M18">
         <v>2990</v>
@@ -1945,13 +1949,13 @@
         <v>360</v>
       </c>
       <c r="P18">
-        <v>3190</v>
+        <v>3270</v>
       </c>
       <c r="Q18">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -1983,10 +1987,10 @@
         <v>24</v>
       </c>
       <c r="K19">
-        <v>5660</v>
+        <v>5780</v>
       </c>
       <c r="L19">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M19">
         <v>5600</v>
@@ -1998,13 +2002,13 @@
         <v>530</v>
       </c>
       <c r="P19">
-        <v>6120</v>
+        <v>6240</v>
       </c>
       <c r="Q19">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -2036,10 +2040,10 @@
         <v>24</v>
       </c>
       <c r="K20">
-        <v>8120</v>
+        <v>8430</v>
       </c>
       <c r="L20">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M20">
         <v>8150</v>
@@ -2051,13 +2055,13 @@
         <v>600</v>
       </c>
       <c r="P20">
-        <v>8710</v>
+        <v>9060</v>
       </c>
       <c r="Q20">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -2077,10 +2081,10 @@
         <v>32</v>
       </c>
       <c r="G21">
-        <v>59.213293</v>
+        <v>59.213293999999998</v>
       </c>
       <c r="H21">
-        <v>11.189306999999999</v>
+        <v>11.189306</v>
       </c>
       <c r="I21" t="s">
         <v>109</v>
@@ -2089,10 +2093,10 @@
         <v>24</v>
       </c>
       <c r="K21">
-        <v>5470</v>
+        <v>5620</v>
       </c>
       <c r="L21">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M21">
         <v>5130</v>
@@ -2104,13 +2108,13 @@
         <v>380</v>
       </c>
       <c r="P21">
-        <v>5900</v>
+        <v>6070</v>
       </c>
       <c r="Q21">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -2142,10 +2146,10 @@
         <v>24</v>
       </c>
       <c r="K22">
-        <v>17710</v>
+        <v>17730</v>
       </c>
       <c r="L22">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M22">
         <v>19410</v>
@@ -2160,10 +2164,10 @@
         <v>19360</v>
       </c>
       <c r="Q22">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -2195,10 +2199,10 @@
         <v>24</v>
       </c>
       <c r="K23">
-        <v>12720</v>
+        <v>12930</v>
       </c>
       <c r="L23">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M23">
         <v>13840</v>
@@ -2210,13 +2214,13 @@
         <v>1320</v>
       </c>
       <c r="P23">
-        <v>14270</v>
+        <v>14520</v>
       </c>
       <c r="Q23">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -2248,10 +2252,10 @@
         <v>24</v>
       </c>
       <c r="K24">
-        <v>10720</v>
+        <v>11380</v>
       </c>
       <c r="L24">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M24">
         <v>10860</v>
@@ -2263,13 +2267,13 @@
         <v>1240</v>
       </c>
       <c r="P24">
-        <v>11620</v>
+        <v>12320</v>
       </c>
       <c r="Q24">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -2301,10 +2305,10 @@
         <v>24</v>
       </c>
       <c r="K25">
-        <v>9640</v>
+        <v>9860</v>
       </c>
       <c r="L25">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M25">
         <v>9740</v>
@@ -2316,13 +2320,13 @@
         <v>890</v>
       </c>
       <c r="P25">
-        <v>10570</v>
+        <v>10760</v>
       </c>
       <c r="Q25">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -2354,10 +2358,10 @@
         <v>24</v>
       </c>
       <c r="K26">
-        <v>6580</v>
+        <v>7140</v>
       </c>
       <c r="L26">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M26">
         <v>7000</v>
@@ -2369,13 +2373,13 @@
         <v>550</v>
       </c>
       <c r="P26">
-        <v>6970</v>
+        <v>7540</v>
       </c>
       <c r="Q26">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -2398,7 +2402,7 @@
         <v>59.215721000000002</v>
       </c>
       <c r="H27">
-        <v>11.180446</v>
+        <v>11.180446999999999</v>
       </c>
       <c r="I27" t="s">
         <v>134</v>
@@ -2407,10 +2411,10 @@
         <v>24</v>
       </c>
       <c r="K27">
-        <v>5350</v>
+        <v>5440</v>
       </c>
       <c r="L27">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M27">
         <v>5180</v>
@@ -2422,13 +2426,13 @@
         <v>510</v>
       </c>
       <c r="P27">
-        <v>5760</v>
+        <v>5860</v>
       </c>
       <c r="Q27">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -2460,10 +2464,10 @@
         <v>24</v>
       </c>
       <c r="K28">
-        <v>6180</v>
+        <v>6150</v>
       </c>
       <c r="L28">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M28">
         <v>6360</v>
@@ -2475,13 +2479,13 @@
         <v>380</v>
       </c>
       <c r="P28">
-        <v>6830</v>
+        <v>6770</v>
       </c>
       <c r="Q28">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -2501,10 +2505,10 @@
         <v>22</v>
       </c>
       <c r="G29">
-        <v>59.282975</v>
+        <v>59.282975999999998</v>
       </c>
       <c r="H29">
-        <v>10.939785000000001</v>
+        <v>10.939786</v>
       </c>
       <c r="I29" t="s">
         <v>143</v>
@@ -2513,10 +2517,10 @@
         <v>24</v>
       </c>
       <c r="K29">
-        <v>2260</v>
+        <v>2240</v>
       </c>
       <c r="L29">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M29">
         <v>2480</v>
@@ -2528,13 +2532,13 @@
         <v>250</v>
       </c>
       <c r="P29">
-        <v>2620</v>
+        <v>2580</v>
       </c>
       <c r="Q29">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -2557,7 +2561,7 @@
         <v>59.277749</v>
       </c>
       <c r="H30">
-        <v>11.136839</v>
+        <v>11.136839999999999</v>
       </c>
       <c r="I30" t="s">
         <v>148</v>
@@ -2566,10 +2570,10 @@
         <v>24</v>
       </c>
       <c r="K30">
-        <v>6670</v>
+        <v>6940</v>
       </c>
       <c r="L30">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M30">
         <v>6960</v>
@@ -2581,10 +2585,10 @@
         <v>780</v>
       </c>
       <c r="P30">
-        <v>7250</v>
+        <v>7530</v>
       </c>
       <c r="Q30">
-        <v>700</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -2594,13 +2598,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2650,7 +2654,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -2700,7 +2704,7 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -2746,8 +2750,11 @@
       <c r="O3">
         <v>-1.79</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P3">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2797,7 +2804,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2843,8 +2850,11 @@
       <c r="O5">
         <v>-0.41</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -2885,7 +2895,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -2916,8 +2926,11 @@
       <c r="O7">
         <v>-1.24</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P7">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2967,7 +2980,7 @@
         <v>-3.67</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -3013,8 +3026,11 @@
       <c r="O9">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P9">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>144</v>
       </c>
@@ -3058,7 +3074,7 @@
         <v>-2.4500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -3104,8 +3120,11 @@
       <c r="O11">
         <v>3.34</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P11">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -3155,7 +3174,7 @@
         <v>-6.61</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -3201,8 +3220,11 @@
       <c r="O13">
         <v>-1.81</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P13">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3252,7 +3274,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -3266,7 +3288,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -3316,7 +3338,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3381,11 @@
       <c r="O17">
         <v>-2.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P17">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -3410,7 +3435,7 @@
         <v>-4.1500000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -3456,8 +3481,11 @@
       <c r="O19">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P19">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -3507,7 +3535,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -3550,8 +3578,11 @@
       <c r="O21">
         <v>5.24</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P21">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>140</v>
       </c>
@@ -3598,7 +3629,7 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>140</v>
       </c>
@@ -3638,8 +3669,11 @@
       <c r="O23">
         <v>-3.12</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P23">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -3683,7 +3717,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -3729,8 +3763,11 @@
       <c r="O25">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P25">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>118</v>
       </c>
@@ -3780,7 +3817,7 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>118</v>
       </c>
@@ -3826,8 +3863,11 @@
       <c r="O27">
         <v>3.31</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P27">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -3877,7 +3917,7 @@
         <v>-2.2200000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -3921,7 +3961,7 @@
         <v>-0.49</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -3971,7 +4011,7 @@
         <v>-6.35</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -4017,8 +4057,11 @@
       <c r="O31">
         <v>-0.67</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P31">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -4068,7 +4111,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -4114,8 +4157,11 @@
       <c r="O33">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P33">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -4162,7 +4208,7 @@
         <v>11.93</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -4205,8 +4251,11 @@
       <c r="O35">
         <v>-2.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P35">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -4250,7 +4299,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -4290,13 +4339,16 @@
       <c r="O37">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P37">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
         <v>121</v>
@@ -4304,13 +4356,49 @@
       <c r="D38">
         <v>2024</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>5.64</v>
+      </c>
+      <c r="F38">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="G38">
+        <v>6.62</v>
+      </c>
+      <c r="H38">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="I38">
+        <v>7.43</v>
+      </c>
+      <c r="J38">
+        <v>-5.77</v>
+      </c>
+      <c r="K38">
+        <v>5.82</v>
+      </c>
+      <c r="L38">
+        <v>5.71</v>
+      </c>
+      <c r="M38">
+        <v>-0.9</v>
+      </c>
+      <c r="N38">
+        <v>0.22</v>
+      </c>
+      <c r="O38">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="P38">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
         <v>121</v>
@@ -4318,742 +4406,687 @@
       <c r="D39">
         <v>2025</v>
       </c>
+      <c r="E39">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="F39">
+        <v>-1.86</v>
+      </c>
+      <c r="G39">
+        <v>2.12</v>
+      </c>
+      <c r="H39">
+        <v>1.29</v>
+      </c>
+      <c r="I39">
+        <v>-6.63</v>
+      </c>
+      <c r="J39">
+        <v>0.25</v>
+      </c>
       <c r="K39">
-        <v>9.7200000000000006</v>
+        <v>13.09</v>
       </c>
       <c r="L39">
-        <v>5.72</v>
+        <v>0.36</v>
       </c>
       <c r="M39">
-        <v>4.5999999999999996</v>
+        <v>0.99</v>
       </c>
       <c r="N39">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+        <v>4.09</v>
+      </c>
+      <c r="O39">
+        <v>0.31</v>
+      </c>
+      <c r="P39">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="D40">
         <v>2024</v>
       </c>
       <c r="E40">
-        <v>5.64</v>
+        <v>6.35</v>
       </c>
       <c r="F40">
-        <v>8.1199999999999992</v>
+        <v>6.78</v>
       </c>
       <c r="G40">
-        <v>6.62</v>
+        <v>-2.94</v>
       </c>
       <c r="H40">
-        <v>9.3699999999999992</v>
+        <v>9.44</v>
       </c>
       <c r="I40">
-        <v>7.43</v>
+        <v>1.36</v>
       </c>
       <c r="J40">
-        <v>-5.77</v>
+        <v>-5.96</v>
       </c>
       <c r="K40">
-        <v>5.82</v>
+        <v>-4.2699999999999996</v>
       </c>
       <c r="L40">
-        <v>5.71</v>
+        <v>-6</v>
       </c>
       <c r="M40">
-        <v>-0.9</v>
+        <v>-4.74</v>
       </c>
       <c r="N40">
-        <v>0.22</v>
+        <v>-1.35</v>
       </c>
       <c r="O40">
-        <v>-0.56000000000000005</v>
+        <v>-4.8499999999999996</v>
       </c>
       <c r="P40">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-4.41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="D41">
         <v>2025</v>
       </c>
       <c r="E41">
-        <v>-0.28000000000000003</v>
+        <v>-2.85</v>
       </c>
       <c r="F41">
-        <v>-1.86</v>
+        <v>-5.42</v>
       </c>
       <c r="G41">
-        <v>2.12</v>
+        <v>2.81</v>
       </c>
       <c r="H41">
-        <v>1.29</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="I41">
-        <v>-6.63</v>
+        <v>1.05</v>
       </c>
       <c r="J41">
-        <v>0.25</v>
+        <v>-0.44</v>
       </c>
       <c r="K41">
-        <v>13.09</v>
+        <v>0.51</v>
       </c>
       <c r="L41">
-        <v>0.36</v>
+        <v>-1.01</v>
       </c>
       <c r="M41">
-        <v>0.99</v>
+        <v>-0.45</v>
       </c>
       <c r="N41">
-        <v>4.09</v>
+        <v>0.1</v>
       </c>
       <c r="O41">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-0.35</v>
+      </c>
+      <c r="P41">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>2024</v>
       </c>
       <c r="E42">
-        <v>6.35</v>
+        <v>-13.07</v>
       </c>
       <c r="F42">
-        <v>6.78</v>
+        <v>-9.4600000000000009</v>
       </c>
       <c r="G42">
-        <v>-2.94</v>
+        <v>-10.3</v>
       </c>
       <c r="H42">
-        <v>9.44</v>
-      </c>
-      <c r="I42">
-        <v>1.36</v>
-      </c>
-      <c r="J42">
-        <v>-5.96</v>
-      </c>
-      <c r="K42">
-        <v>-4.2699999999999996</v>
+        <v>9.98</v>
       </c>
       <c r="L42">
-        <v>-6</v>
+        <v>-5.88</v>
       </c>
       <c r="M42">
-        <v>-4.74</v>
+        <v>-5.34</v>
       </c>
       <c r="N42">
-        <v>-1.35</v>
+        <v>-4.37</v>
       </c>
       <c r="O42">
-        <v>-4.8499999999999996</v>
+        <v>-2.09</v>
       </c>
       <c r="P42">
-        <v>-4.41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-6.68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43">
+        <v>2025</v>
+      </c>
+      <c r="E43">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F43">
+        <v>-1.44</v>
+      </c>
+      <c r="G43">
+        <v>1.22</v>
+      </c>
+      <c r="H43">
+        <v>-3.89</v>
+      </c>
+      <c r="I43">
+        <v>-0.34</v>
+      </c>
+      <c r="J43">
+        <v>3.24</v>
+      </c>
+      <c r="K43">
+        <v>5.01</v>
+      </c>
+      <c r="L43">
+        <v>8.14</v>
+      </c>
+      <c r="M43">
+        <v>6.95</v>
+      </c>
+      <c r="N43">
+        <v>5.54</v>
+      </c>
+      <c r="O43">
+        <v>0.67</v>
+      </c>
+      <c r="P43">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
         <v>63</v>
-      </c>
-      <c r="D43">
-        <v>2025</v>
-      </c>
-      <c r="E43">
-        <v>-2.85</v>
-      </c>
-      <c r="F43">
-        <v>-5.42</v>
-      </c>
-      <c r="G43">
-        <v>2.81</v>
-      </c>
-      <c r="H43">
-        <v>-4.4000000000000004</v>
-      </c>
-      <c r="I43">
-        <v>1.05</v>
-      </c>
-      <c r="J43">
-        <v>-0.44</v>
-      </c>
-      <c r="K43">
-        <v>0.51</v>
-      </c>
-      <c r="L43">
-        <v>-1.01</v>
-      </c>
-      <c r="M43">
-        <v>-0.45</v>
-      </c>
-      <c r="N43">
-        <v>0.1</v>
-      </c>
-      <c r="O43">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" t="s">
-        <v>89</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-13.07</v>
+        <v>-1.17</v>
       </c>
       <c r="F44">
-        <v>-9.4600000000000009</v>
+        <v>5.26</v>
       </c>
       <c r="G44">
-        <v>-10.3</v>
+        <v>6.7</v>
       </c>
       <c r="H44">
-        <v>9.98</v>
+        <v>18.690000000000001</v>
+      </c>
+      <c r="I44">
+        <v>52.17</v>
+      </c>
+      <c r="J44">
+        <v>39.909999999999997</v>
+      </c>
+      <c r="K44">
+        <v>9.58</v>
       </c>
       <c r="L44">
-        <v>-5.88</v>
+        <v>9.52</v>
       </c>
       <c r="M44">
-        <v>-5.34</v>
+        <v>3.92</v>
       </c>
       <c r="N44">
-        <v>-4.37</v>
+        <v>7.23</v>
       </c>
       <c r="O44">
-        <v>-2.09</v>
+        <v>1.63</v>
       </c>
       <c r="P44">
-        <v>-6.68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D45">
         <v>2025</v>
       </c>
       <c r="E45">
-        <v>2.2000000000000002</v>
+        <v>3.52</v>
       </c>
       <c r="F45">
-        <v>-1.44</v>
+        <v>-3.81</v>
       </c>
       <c r="G45">
-        <v>1.22</v>
+        <v>-10.18</v>
       </c>
       <c r="H45">
-        <v>-3.89</v>
+        <v>-15.61</v>
       </c>
       <c r="I45">
-        <v>-0.34</v>
+        <v>-10.44</v>
       </c>
       <c r="J45">
-        <v>3.24</v>
+        <v>-9.64</v>
       </c>
       <c r="K45">
-        <v>5.01</v>
+        <v>-6.59</v>
       </c>
       <c r="L45">
-        <v>8.14</v>
+        <v>-8.06</v>
       </c>
       <c r="M45">
-        <v>6.95</v>
+        <v>-0.87</v>
       </c>
       <c r="N45">
-        <v>5.54</v>
+        <v>1.69</v>
       </c>
       <c r="O45">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1.24</v>
+      </c>
+      <c r="P45">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="D46">
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-1.17</v>
+        <v>-5.76</v>
       </c>
       <c r="F46">
-        <v>5.26</v>
+        <v>-3.06</v>
       </c>
       <c r="G46">
-        <v>6.7</v>
+        <v>-10.41</v>
       </c>
       <c r="H46">
-        <v>18.690000000000001</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="I46">
-        <v>52.17</v>
+        <v>-13.03</v>
       </c>
       <c r="J46">
-        <v>39.909999999999997</v>
+        <v>-16.21</v>
       </c>
       <c r="K46">
-        <v>9.58</v>
+        <v>-7.98</v>
       </c>
       <c r="L46">
-        <v>9.52</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="M46">
-        <v>3.92</v>
+        <v>-7.98</v>
       </c>
       <c r="N46">
-        <v>7.23</v>
+        <v>-6.68</v>
       </c>
       <c r="O46">
-        <v>1.63</v>
+        <v>-8.2200000000000006</v>
       </c>
       <c r="P46">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-5.26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
-      <c r="E47">
-        <v>3.52</v>
-      </c>
-      <c r="F47">
-        <v>-3.81</v>
-      </c>
-      <c r="G47">
-        <v>-10.18</v>
-      </c>
-      <c r="H47">
-        <v>-15.61</v>
-      </c>
-      <c r="I47">
-        <v>-10.44</v>
-      </c>
-      <c r="J47">
-        <v>-9.64</v>
-      </c>
-      <c r="K47">
-        <v>-6.59</v>
-      </c>
-      <c r="L47">
-        <v>-8.06</v>
-      </c>
-      <c r="M47">
-        <v>-0.87</v>
-      </c>
-      <c r="N47">
-        <v>1.69</v>
-      </c>
-      <c r="O47">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="D48">
         <v>2024</v>
       </c>
       <c r="E48">
-        <v>-5.76</v>
+        <v>5.92</v>
       </c>
       <c r="F48">
-        <v>-3.06</v>
+        <v>7.23</v>
       </c>
       <c r="G48">
-        <v>-10.41</v>
+        <v>-3.77</v>
       </c>
       <c r="H48">
-        <v>-0.28999999999999998</v>
+        <v>8.68</v>
       </c>
       <c r="I48">
-        <v>-13.03</v>
+        <v>-2.65</v>
       </c>
       <c r="J48">
-        <v>-16.21</v>
+        <v>-11.03</v>
       </c>
       <c r="K48">
-        <v>-7.98</v>
+        <v>-9.7899999999999991</v>
       </c>
       <c r="L48">
-        <v>-9.6999999999999993</v>
+        <v>-5.31</v>
       </c>
       <c r="M48">
-        <v>-7.98</v>
+        <v>-4.5</v>
       </c>
       <c r="N48">
-        <v>-6.68</v>
+        <v>-3.04</v>
       </c>
       <c r="O48">
-        <v>-8.2200000000000006</v>
+        <v>-8.1</v>
       </c>
       <c r="P48">
-        <v>-5.26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <v>-8</v>
+      </c>
+      <c r="F49">
+        <v>-7.24</v>
+      </c>
+      <c r="G49">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H49">
+        <v>-4.91</v>
+      </c>
+      <c r="I49">
+        <v>0.13</v>
+      </c>
+      <c r="J49">
+        <v>3.01</v>
+      </c>
+      <c r="K49">
+        <v>0.95</v>
+      </c>
+      <c r="L49">
+        <v>1.93</v>
+      </c>
+      <c r="M49">
+        <v>1.49</v>
+      </c>
+      <c r="N49">
+        <v>2.6</v>
+      </c>
+      <c r="O49">
+        <v>2.62</v>
+      </c>
+      <c r="P49">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="D50">
         <v>2024</v>
       </c>
       <c r="E50">
-        <v>5.92</v>
+        <v>-8.18</v>
       </c>
       <c r="F50">
-        <v>7.23</v>
+        <v>-1.68</v>
       </c>
       <c r="G50">
-        <v>-3.77</v>
+        <v>-7.81</v>
       </c>
       <c r="H50">
-        <v>8.68</v>
+        <v>2.56</v>
       </c>
       <c r="I50">
-        <v>-2.65</v>
+        <v>-7.99</v>
       </c>
       <c r="J50">
-        <v>-11.03</v>
+        <v>-12.89</v>
       </c>
       <c r="K50">
-        <v>-9.7899999999999991</v>
+        <v>-11.65</v>
       </c>
       <c r="L50">
-        <v>-5.31</v>
+        <v>-8.2200000000000006</v>
       </c>
       <c r="M50">
-        <v>-4.5</v>
+        <v>-7.09</v>
       </c>
       <c r="N50">
-        <v>-3.04</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="O50">
-        <v>-8.1</v>
+        <v>12.84</v>
       </c>
       <c r="P50">
-        <v>-5.0599999999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+        <v>17.07</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="D51">
         <v>2025</v>
       </c>
       <c r="E51">
-        <v>-8</v>
+        <v>8.59</v>
       </c>
       <c r="F51">
-        <v>-7.24</v>
+        <v>10.83</v>
       </c>
       <c r="G51">
-        <v>-0.14000000000000001</v>
+        <v>16.02</v>
       </c>
       <c r="H51">
-        <v>-4.91</v>
+        <v>9.69</v>
       </c>
       <c r="I51">
-        <v>0.13</v>
+        <v>12.17</v>
       </c>
       <c r="J51">
-        <v>3.01</v>
+        <v>20.97</v>
       </c>
       <c r="K51">
-        <v>0.95</v>
-      </c>
-      <c r="L51">
-        <v>1.93</v>
+        <v>27.27</v>
       </c>
       <c r="M51">
-        <v>1.49</v>
+        <v>19.38</v>
       </c>
       <c r="N51">
-        <v>2.6</v>
+        <v>17.48</v>
       </c>
       <c r="O51">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+        <v>7.3</v>
+      </c>
+      <c r="P51">
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="D52">
         <v>2024</v>
       </c>
       <c r="E52">
-        <v>-8.18</v>
+        <v>-2.83</v>
       </c>
       <c r="F52">
-        <v>-1.68</v>
+        <v>-0.75</v>
       </c>
       <c r="G52">
-        <v>-7.81</v>
+        <v>-3.1</v>
       </c>
       <c r="H52">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="I52">
-        <v>-7.99</v>
+        <v>1.99</v>
       </c>
       <c r="J52">
-        <v>-12.89</v>
+        <v>-6.92</v>
       </c>
       <c r="K52">
-        <v>-11.65</v>
+        <v>-1.06</v>
       </c>
       <c r="L52">
-        <v>-8.2200000000000006</v>
-      </c>
-      <c r="M52">
-        <v>-7.09</v>
+        <v>1.59</v>
       </c>
       <c r="N52">
-        <v>4.6100000000000003</v>
+        <v>1.38</v>
       </c>
       <c r="O52">
-        <v>12.84</v>
+        <v>1.6</v>
       </c>
       <c r="P52">
-        <v>17.07</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="D53">
         <v>2025</v>
       </c>
       <c r="E53">
-        <v>8.59</v>
+        <v>5.74</v>
       </c>
       <c r="F53">
-        <v>10.83</v>
+        <v>1.78</v>
       </c>
       <c r="G53">
-        <v>16.02</v>
+        <v>5.56</v>
       </c>
       <c r="H53">
-        <v>9.69</v>
+        <v>5.39</v>
       </c>
       <c r="I53">
-        <v>12.17</v>
+        <v>0.47</v>
       </c>
       <c r="J53">
-        <v>20.97</v>
+        <v>4.75</v>
       </c>
       <c r="K53">
-        <v>27.27</v>
-      </c>
-      <c r="M53">
-        <v>19.38</v>
+        <v>12.59</v>
+      </c>
+      <c r="L53">
+        <v>1.93</v>
       </c>
       <c r="N53">
-        <v>17.48</v>
+        <v>2.14</v>
       </c>
       <c r="O53">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54">
-        <v>2024</v>
-      </c>
-      <c r="E54">
-        <v>-2.83</v>
-      </c>
-      <c r="F54">
-        <v>-0.75</v>
-      </c>
-      <c r="G54">
-        <v>-3.1</v>
-      </c>
-      <c r="H54">
-        <v>2.36</v>
-      </c>
-      <c r="I54">
+        <v>0.27</v>
+      </c>
+      <c r="P53">
         <v>1.99</v>
-      </c>
-      <c r="J54">
-        <v>-6.92</v>
-      </c>
-      <c r="K54">
-        <v>-1.06</v>
-      </c>
-      <c r="L54">
-        <v>1.59</v>
-      </c>
-      <c r="N54">
-        <v>1.38</v>
-      </c>
-      <c r="O54">
-        <v>1.6</v>
-      </c>
-      <c r="P54">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55">
-        <v>2025</v>
-      </c>
-      <c r="E55">
-        <v>5.74</v>
-      </c>
-      <c r="F55">
-        <v>1.78</v>
-      </c>
-      <c r="G55">
-        <v>5.56</v>
-      </c>
-      <c r="H55">
-        <v>5.39</v>
-      </c>
-      <c r="I55">
-        <v>0.47</v>
-      </c>
-      <c r="J55">
-        <v>4.75</v>
-      </c>
-      <c r="K55">
-        <v>12.59</v>
-      </c>
-      <c r="L55">
-        <v>1.93</v>
-      </c>
-      <c r="N55">
-        <v>2.14</v>
-      </c>
-      <c r="O55">
-        <v>0.27</v>
       </c>
     </row>
   </sheetData>
@@ -5063,13 +5096,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>162</v>
       </c>
@@ -5113,7 +5146,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -5157,7 +5190,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -5165,19 +5198,19 @@
         <v>2025</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E3">
-        <v>1.0195000000000001</v>
+        <v>1.0207999999999999</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>0.91198202920342375</v>
+        <v>0.89644907764604609</v>
       </c>
       <c r="H3" t="s">
         <v>175</v>
@@ -5189,16 +5222,60 @@
         <v>177</v>
       </c>
       <c r="K3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3">
+        <v>0.3</v>
+      </c>
+      <c r="N3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2023</v>
+      </c>
+      <c r="B4">
+        <v>2025</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>-0.1</v>
+      </c>
+      <c r="E4">
+        <v>0.9993631999999999</v>
+      </c>
+      <c r="F4">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>1.321361087941616</v>
+      </c>
+      <c r="H4" t="s">
         <v>180</v>
       </c>
-      <c r="M3">
-        <v>0.2</v>
-      </c>
-      <c r="N3">
-        <v>3.8</v>
+      <c r="I4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" t="s">
+        <v>161</v>
+      </c>
+      <c r="L4" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4">
+        <v>-2.7</v>
+      </c>
+      <c r="N4">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -5212,9 +5289,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>162</v>
       </c>
@@ -5258,7 +5335,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -5266,19 +5343,19 @@
         <v>2024</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>-2.2999999999999998</v>
+        <v>-2.1</v>
       </c>
       <c r="E2">
-        <v>0.97709999999999997</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="F2">
         <v>26</v>
       </c>
       <c r="G2">
-        <v>1.001137788558742</v>
+        <v>0.96764651594296858</v>
       </c>
       <c r="H2" t="s">
         <v>175</v>
@@ -5290,19 +5367,19 @@
         <v>177</v>
       </c>
       <c r="K2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M2">
-        <v>-4.3</v>
+        <v>-4</v>
       </c>
       <c r="N2">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -5310,19 +5387,19 @@
         <v>2025</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E3">
-        <v>1.0195000000000001</v>
+        <v>1.0207999999999999</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>0.91198202920342375</v>
+        <v>0.89644907764604609</v>
       </c>
       <c r="H3" t="s">
         <v>175</v>
@@ -5334,19 +5411,19 @@
         <v>177</v>
       </c>
       <c r="K3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="N3">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -5354,40 +5431,40 @@
         <v>2025</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="E4">
-        <v>0.99615345</v>
+        <v>0.9993631999999999</v>
       </c>
       <c r="F4">
         <v>26</v>
       </c>
       <c r="G4">
-        <v>1.35494839432035</v>
+        <v>1.321361087941616</v>
       </c>
       <c r="H4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" t="s">
         <v>181</v>
-      </c>
-      <c r="I4" t="s">
-        <v>182</v>
       </c>
       <c r="J4" t="s">
         <v>177</v>
       </c>
       <c r="K4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M4">
-        <v>-3.1</v>
+        <v>-2.7</v>
       </c>
       <c r="N4">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -5397,16 +5474,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="20.7265625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>165</v>
       </c>
@@ -5417,13 +5494,13 @@
         <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>173</v>
@@ -5432,22 +5509,22 @@
         <v>174</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>149</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.97690990001742462</v>
       </c>
@@ -5473,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J2" s="2">
         <v>45627</v>
@@ -5485,10 +5562,10 @@
         <v>2024</v>
       </c>
       <c r="M2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.97727067764172348</v>
       </c>
@@ -5514,7 +5591,7 @@
         <v>0.1</v>
       </c>
       <c r="I3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J3" s="2">
         <v>45658</v>
@@ -5526,10 +5603,10 @@
         <v>2025</v>
       </c>
       <c r="M3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.97420736895427706</v>
       </c>
@@ -5555,7 +5632,7 @@
         <v>-0.1</v>
       </c>
       <c r="I4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J4" s="2">
         <v>45689</v>
@@ -5567,10 +5644,10 @@
         <v>2025</v>
       </c>
       <c r="M4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.97585404487617367</v>
       </c>
@@ -5596,7 +5673,7 @@
         <v>0.1</v>
       </c>
       <c r="I5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J5" s="2">
         <v>45717</v>
@@ -5608,10 +5685,10 @@
         <v>2025</v>
       </c>
       <c r="M5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.97411214263331747</v>
       </c>
@@ -5637,7 +5714,7 @@
         <v>-0.2</v>
       </c>
       <c r="I6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J6" s="2">
         <v>45748</v>
@@ -5649,10 +5726,10 @@
         <v>2025</v>
       </c>
       <c r="M6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.97584822450743247</v>
       </c>
@@ -5678,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J7" s="2">
         <v>45778</v>
@@ -5690,10 +5767,10 @@
         <v>2025</v>
       </c>
       <c r="M7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.98326688446718169</v>
       </c>
@@ -5719,7 +5796,7 @@
         <v>0.8</v>
       </c>
       <c r="I8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J8" s="2">
         <v>45809</v>
@@ -5731,10 +5808,10 @@
         <v>2025</v>
       </c>
       <c r="M8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.99300094751402368</v>
       </c>
@@ -5760,7 +5837,7 @@
         <v>2.1</v>
       </c>
       <c r="I9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J9" s="2">
         <v>45839</v>
@@ -5772,10 +5849,10 @@
         <v>2025</v>
       </c>
       <c r="M9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.99354952738487901</v>
       </c>
@@ -5801,7 +5878,7 @@
         <v>2.1</v>
       </c>
       <c r="I10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J10" s="2">
         <v>45870</v>
@@ -5813,10 +5890,10 @@
         <v>2025</v>
       </c>
       <c r="M10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.99915322495263881</v>
       </c>
@@ -5842,7 +5919,7 @@
         <v>2.7</v>
       </c>
       <c r="I11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J11" s="2">
         <v>45901</v>
@@ -5854,10 +5931,10 @@
         <v>2025</v>
       </c>
       <c r="M11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.0014027511218691</v>
       </c>
@@ -5883,7 +5960,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J12" s="2">
         <v>45931</v>
@@ -5895,10 +5972,10 @@
         <v>2025</v>
       </c>
       <c r="M12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.004100693421716</v>
       </c>
@@ -5924,7 +6001,7 @@
         <v>3.3</v>
       </c>
       <c r="I13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J13" s="2">
         <v>45962</v>
@@ -5936,7 +6013,89 @@
         <v>2025</v>
       </c>
       <c r="M13" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.006574391191835</v>
+      </c>
+      <c r="B14">
+        <v>0.6574391191834561</v>
+      </c>
+      <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>16.1890479828708</v>
+      </c>
+      <c r="E14">
+        <v>5.5867564845595759</v>
+      </c>
+      <c r="F14">
+        <v>1.3885102389669679</v>
+      </c>
+      <c r="G14">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="H14">
+        <v>3.6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>202</v>
+      </c>
+      <c r="J14" s="2">
+        <v>45992</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <v>2025</v>
+      </c>
+      <c r="M14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.98673003268731097</v>
+      </c>
+      <c r="B15">
+        <v>-1.3269967312689031</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>12.53309682820035</v>
+      </c>
+      <c r="E15">
+        <v>4.2405725209462908</v>
+      </c>
+      <c r="F15">
+        <v>1.1978303072094849</v>
+      </c>
+      <c r="G15">
+        <v>-3.9</v>
+      </c>
+      <c r="H15">
+        <v>1.2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>203</v>
+      </c>
+      <c r="J15" s="2">
+        <v>45992</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="L15">
+        <v>2025</v>
+      </c>
+      <c r="M15" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
